--- a/data/DobihCodeNames.xlsx
+++ b/data/DobihCodeNames.xlsx
@@ -8,35 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\scotlands-mountains\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68D3E2-97AF-4ECE-B157-610FAC5C962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DA727-7269-4D79-BB66-A7227B659DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47C25BEF-F419-4614-AF31-B0423522DC6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47C25BEF-F419-4614-AF31-B0423522DC6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fields" sheetId="1" r:id="rId1"/>
+    <sheet name="Classifications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="332">
   <si>
     <t>Number</t>
   </si>
@@ -639,6 +629,399 @@
   </si>
   <si>
     <t>Tump0To99M</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>TuMP</t>
+  </si>
+  <si>
+    <t>TuMP (400m to 499m)</t>
+  </si>
+  <si>
+    <t>TuMP (300m to 399m)</t>
+  </si>
+  <si>
+    <t>TuMP (200m to 299m)</t>
+  </si>
+  <si>
+    <t>TuMP (100m to 199m)</t>
+  </si>
+  <si>
+    <t>TuMP (0m to 99m)</t>
+  </si>
+  <si>
+    <t>County Top (Historic Pre-1974)</t>
+  </si>
+  <si>
+    <t>County Top (Historic Pre-1974 twin)</t>
+  </si>
+  <si>
+    <t>Marilyn twin</t>
+  </si>
+  <si>
+    <t>HuMP</t>
+  </si>
+  <si>
+    <t>HuMP twin</t>
+  </si>
+  <si>
+    <t>County Top (Current County or Unitary Authority)</t>
+  </si>
+  <si>
+    <t>County Top (Current County or Unitary Authority twin)</t>
+  </si>
+  <si>
+    <t>County Top (Administrative 1974 to Mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Top (Administrative 1974 to Mid-1990s twin)</t>
+  </si>
+  <si>
+    <t>County Top (Current London Borough)</t>
+  </si>
+  <si>
+    <t>County Top (Current London Borough twin)</t>
+  </si>
+  <si>
+    <t>Sub-Marilyn</t>
+  </si>
+  <si>
+    <t>Sub-HuMP</t>
+  </si>
+  <si>
+    <t>Sub-Simm</t>
+  </si>
+  <si>
+    <t>Sub-Dodd</t>
+  </si>
+  <si>
+    <t>Sub-TuMP (400m to 499m)</t>
+  </si>
+  <si>
+    <t>Corbett top</t>
+  </si>
+  <si>
+    <t>Graham top</t>
+  </si>
+  <si>
+    <t>Deleted Munro top</t>
+  </si>
+  <si>
+    <t>Deleted Corbett</t>
+  </si>
+  <si>
+    <t>Deleted Graham</t>
+  </si>
+  <si>
+    <t>Deleted Nuttall</t>
+  </si>
+  <si>
+    <t>Deleted Donald top</t>
+  </si>
+  <si>
+    <t>British and Irish hills of any height with a drop of at least 150 metres on all sides. The geographical area includes the Isle of Man and the islands of St Kilda.</t>
+  </si>
+  <si>
+    <t>A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland.</t>
+  </si>
+  <si>
+    <t>British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence.</t>
+  </si>
+  <si>
+    <t>A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m.</t>
+  </si>
+  <si>
+    <t>British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014.</t>
+  </si>
+  <si>
+    <t>British hills at least 600 metres high with a drop of at least 30 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Scotland, England, Wales, the Isle of Man and Ireland between 500m and 599.9m high with a drop of at least 30 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Scottish hills at least 3000 feet in height regarded by the SMC as distinct and separate mountains, based on a list originally published in 1891.</t>
+  </si>
+  <si>
+    <t>Summits equivalent to the Munros and Tops in England, Wales and Ireland on the SMC's list are known as Furths.</t>
+  </si>
+  <si>
+    <t>Scottish hills at least 3000 feet in height with a drop of at least 30 metres on all sides. All Murdos are Munros or Munro Tops but some Munro Tops fail to qualify as Murdos.</t>
+  </si>
+  <si>
+    <t>Scottish hills between 2500 and 2999 feet high with a drop of at least 500 feet (152.4m) on all sides.</t>
+  </si>
+  <si>
+    <t>Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 30 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet.</t>
+  </si>
+  <si>
+    <t>Hills in England, Wales and Ireland at least 2000 feet high with a drop of at least 30 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in England and Wales at least 2000 feet high with a drop of at least 15 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Ireland at least 600 metres high with a drop of at least 15 metres on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Ireland at least 2000 feet high.</t>
+  </si>
+  <si>
+    <t>Hills in England, Wales and the Isle of Man at least 500m high and below 609.6m with a drop of at least 30m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in the Scottish Lowlands at least 500m high and below 609.6m with a drop of at least 30m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in the Scottish Highlands at least 500m high and below 600m with a drop of at least 30m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Ireland at least 500 metres high with a drop of at least 30m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Ireland between 400 and 499.9m high with a drop of at least 30m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills in Ireland with height below 400m and a drop of at least 100m on all sides.</t>
+  </si>
+  <si>
+    <t>Hills listed in Wainwright's The Outlying Fells of Lakeland.</t>
+  </si>
+  <si>
+    <t>Lake District hills over 1,000ft.</t>
+  </si>
+  <si>
+    <t>Scottish hills with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point.</t>
+  </si>
+  <si>
+    <t>Hills in England, Wales and the Isle of Man with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point.</t>
+  </si>
+  <si>
+    <t>The highest point within (or sometimes on) the boundary of each county.</t>
+  </si>
+  <si>
+    <t>The Significant Islands of Britain and Ireland are defined to be completely surrounded by water, with either an area of at least 30 hectares within the MHWS contour line or an easily accessed summit prominence of at least 30 metres above MSL, all man-made links and structures being discounted. Sea stacks and other steep sided islands are therefore discounted.</t>
+  </si>
+  <si>
+    <t>Hills that fall short of Marilyn status on drop by 10m or less.</t>
+  </si>
+  <si>
+    <t>Hills that fall short of Simm status on drop by 10m or less.</t>
+  </si>
+  <si>
+    <t>Hills that fall short of Dodd status on drop by 10m or less.</t>
+  </si>
+  <si>
+    <t>Hills that fall short of HuMP status on drop by 10m or less.</t>
+  </si>
+  <si>
+    <t>Hills that fall short of TuMP status on drop by 10m or less.</t>
+  </si>
+  <si>
+    <t>Singular</t>
+  </si>
+  <si>
+    <t>Marilyns</t>
+  </si>
+  <si>
+    <t>Marilyn twins</t>
+  </si>
+  <si>
+    <t>HuMPs</t>
+  </si>
+  <si>
+    <t>HuMP twins</t>
+  </si>
+  <si>
+    <t>TuMPs</t>
+  </si>
+  <si>
+    <t>Simms</t>
+  </si>
+  <si>
+    <t>Dodds</t>
+  </si>
+  <si>
+    <t>Munros</t>
+  </si>
+  <si>
+    <t>Munro Tops</t>
+  </si>
+  <si>
+    <t>Furths</t>
+  </si>
+  <si>
+    <t>Corbetts</t>
+  </si>
+  <si>
+    <t>Grahams</t>
+  </si>
+  <si>
+    <t>Donalds</t>
+  </si>
+  <si>
+    <t>Donald Tops</t>
+  </si>
+  <si>
+    <t>Hewitts</t>
+  </si>
+  <si>
+    <t>Nuttalls</t>
+  </si>
+  <si>
+    <t>Deweys</t>
+  </si>
+  <si>
+    <t>Donald Deweys</t>
+  </si>
+  <si>
+    <t>Highland Fives</t>
+  </si>
+  <si>
+    <t>Wainwrights</t>
+  </si>
+  <si>
+    <t>Wainwright Outlying Fells</t>
+  </si>
+  <si>
+    <t>Birketts</t>
+  </si>
+  <si>
+    <t>Synges</t>
+  </si>
+  <si>
+    <t>Fellrangers</t>
+  </si>
+  <si>
+    <t>Sub-Marilyns</t>
+  </si>
+  <si>
+    <t>Sub-HuMPs</t>
+  </si>
+  <si>
+    <t>Sub-Simms</t>
+  </si>
+  <si>
+    <t>Sub-Dodds</t>
+  </si>
+  <si>
+    <t>Murdos</t>
+  </si>
+  <si>
+    <t>Corbett tops</t>
+  </si>
+  <si>
+    <t>Graham tops</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Yeamans</t>
+  </si>
+  <si>
+    <t>Clems</t>
+  </si>
+  <si>
+    <t>Trail 100s</t>
+  </si>
+  <si>
+    <t>Deleted Munro tops</t>
+  </si>
+  <si>
+    <t>Deleted Corbetts</t>
+  </si>
+  <si>
+    <t>Deleted Grahams</t>
+  </si>
+  <si>
+    <t>Deleted Nuttalls</t>
+  </si>
+  <si>
+    <t>Deleted Donald tops</t>
+  </si>
+  <si>
+    <t>Dillons</t>
+  </si>
+  <si>
+    <t>Vandeleur-Lynams</t>
+  </si>
+  <si>
+    <t>Arderins</t>
+  </si>
+  <si>
+    <t>Carns</t>
+  </si>
+  <si>
+    <t>Binnions</t>
+  </si>
+  <si>
+    <t>Other lists</t>
+  </si>
+  <si>
+    <t>TuMPs (400m to 499m)</t>
+  </si>
+  <si>
+    <t>TuMPs (300m to 399m)</t>
+  </si>
+  <si>
+    <t>TuMPs (200m to 299m)</t>
+  </si>
+  <si>
+    <t>TuMPs (100m to 199m)</t>
+  </si>
+  <si>
+    <t>TuMPs (0m to 99m)</t>
+  </si>
+  <si>
+    <t>County Tops (Historic Pre-1974)</t>
+  </si>
+  <si>
+    <t>County Tops (Current County or Unitary Authority)</t>
+  </si>
+  <si>
+    <t>County Top twims (Current County or Unitary Authority)</t>
+  </si>
+  <si>
+    <t>County Tops twins (Historic Pre-1974)</t>
+  </si>
+  <si>
+    <t>County Tops (Administrative 1974 to Mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Top twins (Administrative 1974 to Mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Tops (Current London Borough)</t>
+  </si>
+  <si>
+    <t>County Top twins (Current London Borough)</t>
+  </si>
+  <si>
+    <t>Significant Islands of Britain</t>
+  </si>
+  <si>
+    <t>Sub-TuMPs (400m to 499m)</t>
+  </si>
+  <si>
+    <t>Subsidiary summits meeting the height criterion of Munros are designated Munro Tops.</t>
+  </si>
+  <si>
+    <t>The 214 hills listed in volumes 1-7 of Wainwright's A Pictorial Guide to the Lakeland Fells.</t>
+  </si>
+  <si>
+    <t>Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops.</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F859AA23-BA41-4384-B7DE-EF387CE76901}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3173,7 +3558,7 @@
         <v>Ma</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>VLOOKUP(I43,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" ref="J43:J74" si="9">VLOOKUP(I43,$O$43:$Q$89,3,FALSE)</f>
         <v>Marilyn</v>
       </c>
       <c r="K43" s="4" t="str">
@@ -3215,50 +3600,50 @@
         <v>41</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" ref="C44:C105" si="9">IF(EXACT(LEFT(B44,1),"s"),"Sub","")</f>
+        <f t="shared" ref="C44:C105" si="10">IF(EXACT(LEFT(B44,1),"s"),"Sub","")</f>
         <v/>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" ref="D44:D105" si="10">IF(EXACT(LEFT(B44,1),"x"),"Deleted","")</f>
+        <f t="shared" ref="D44:D105" si="11">IF(EXACT(LEFT(B44,1),"x"),"Deleted","")</f>
         <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" ref="E44:E105" si="11">IF(EXACT(RIGHT(B44,1),"="),"Twin","")</f>
+        <f t="shared" ref="E44:E105" si="12">IF(EXACT(RIGHT(B44,1),"="),"Twin","")</f>
         <v>Twin</v>
       </c>
       <c r="F44" s="4" t="str">
-        <f t="shared" ref="F44:F105" si="12">IF(EXACT(LEFT(B44,1),"s"),MID(B44,2,LEN(B44)-1),B44)</f>
+        <f t="shared" ref="F44:F105" si="13">IF(EXACT(LEFT(B44,1),"s"),MID(B44,2,LEN(B44)-1),B44)</f>
         <v>Ma=</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f t="shared" ref="G44:G105" si="13">IF(EXACT(LEFT(F44,1),"x"),MID(F44,2,LEN(F44)-1),F44)</f>
+        <f t="shared" ref="G44:G105" si="14">IF(EXACT(LEFT(F44,1),"x"),MID(F44,2,LEN(F44)-1),F44)</f>
         <v>Ma=</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" ref="H44:H105" si="14">IF(EXACT(RIGHT(G44,1),"="),LEFT(G44,LEN(G44)-1),G44)</f>
+        <f t="shared" ref="H44:H105" si="15">IF(EXACT(RIGHT(G44,1),"="),LEFT(G44,LEN(G44)-1),G44)</f>
         <v>Ma</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f t="shared" ref="I44:I105" si="15">TEXT(H44,"#")</f>
+        <f t="shared" ref="I44:I105" si="16">TEXT(H44,"#")</f>
         <v>Ma</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>VLOOKUP(I44,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Marilyn</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" ref="K44:K105" si="16">C44&amp;D44&amp;J44&amp;E44</f>
+        <f t="shared" ref="K44:K105" si="17">C44&amp;D44&amp;J44&amp;E44</f>
         <v>MarilynTwin</v>
       </c>
       <c r="L44" s="5" t="str">
-        <f t="shared" ref="L44:L105" si="17">K44</f>
+        <f t="shared" ref="L44:L105" si="18">K44</f>
         <v>MarilynTwin</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" ref="O44:O89" si="18">TEXT(N44,"#")</f>
+        <f t="shared" ref="O44:O89" si="19">TEXT(N44,"#")</f>
         <v>Hu</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -3285,50 +3670,50 @@
         <v>42</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F45" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Hu</v>
-      </c>
-      <c r="G45" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Hu</v>
       </c>
-      <c r="H45" s="4" t="str">
+      <c r="G45" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Hu</v>
       </c>
-      <c r="I45" s="4" t="str">
+      <c r="H45" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hu</v>
       </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Hu</v>
+      </c>
       <c r="J45" s="4" t="str">
-        <f>VLOOKUP(I45,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Hump</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Hump</v>
-      </c>
-      <c r="L45" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Hump</v>
       </c>
+      <c r="L45" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Hump</v>
+      </c>
       <c r="N45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sim</v>
       </c>
       <c r="P45" s="2" t="s">
@@ -3355,50 +3740,50 @@
         <v>43</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Twin</v>
       </c>
       <c r="F46" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Hu=</v>
-      </c>
-      <c r="G46" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Hu=</v>
       </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>Hu=</v>
+      </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>Hu</v>
-      </c>
-      <c r="I46" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hu</v>
       </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Hu</v>
+      </c>
       <c r="J46" s="4" t="str">
-        <f>VLOOKUP(I46,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Hump</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>HumpTwin</v>
-      </c>
-      <c r="L46" s="5" t="str">
         <f t="shared" si="17"/>
         <v>HumpTwin</v>
       </c>
+      <c r="L46" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>HumpTwin</v>
+      </c>
       <c r="N46" s="3">
         <v>5</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="P46" s="2" t="s">
@@ -3425,50 +3810,50 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F47" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Tu</v>
-      </c>
-      <c r="G47" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Tu</v>
       </c>
-      <c r="H47" s="4" t="str">
+      <c r="G47" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Tu</v>
       </c>
-      <c r="I47" s="4" t="str">
+      <c r="H47" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Tu</v>
       </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Tu</v>
+      </c>
       <c r="J47" s="4" t="str">
-        <f>VLOOKUP(I47,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump</v>
-      </c>
-      <c r="L47" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump</v>
       </c>
+      <c r="L47" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump</v>
+      </c>
       <c r="N47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="P47" s="2" t="s">
@@ -3495,50 +3880,50 @@
         <v>45</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F48" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Sim</v>
-      </c>
-      <c r="G48" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Sim</v>
       </c>
-      <c r="H48" s="4" t="str">
+      <c r="G48" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Sim</v>
       </c>
-      <c r="I48" s="4" t="str">
+      <c r="H48" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Sim</v>
       </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Sim</v>
+      </c>
       <c r="J48" s="4" t="str">
-        <f>VLOOKUP(I48,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Simm</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Simm</v>
-      </c>
-      <c r="L48" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Simm</v>
       </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Simm</v>
+      </c>
       <c r="N48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>MT</v>
       </c>
       <c r="P48" s="2" t="s">
@@ -3565,50 +3950,50 @@
         <v>5</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="G49" s="4">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="H49" s="4">
+      <c r="G49" s="4">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="I49" s="4" t="str">
+      <c r="H49" s="4">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
       <c r="J49" s="4" t="str">
-        <f>VLOOKUP(I49,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Dodd</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Dodd</v>
-      </c>
-      <c r="L49" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Dodd</v>
       </c>
+      <c r="L49" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Dodd</v>
+      </c>
       <c r="N49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="P49" s="2" t="s">
@@ -3635,50 +4020,50 @@
         <v>46</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F50" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>M</v>
-      </c>
-      <c r="G50" s="4" t="str">
         <f t="shared" si="13"/>
         <v>M</v>
       </c>
-      <c r="H50" s="4" t="str">
+      <c r="G50" s="4" t="str">
         <f t="shared" si="14"/>
         <v>M</v>
       </c>
-      <c r="I50" s="4" t="str">
+      <c r="H50" s="4" t="str">
         <f t="shared" si="15"/>
         <v>M</v>
       </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>M</v>
+      </c>
       <c r="J50" s="4" t="str">
-        <f>VLOOKUP(I50,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Munro</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Munro</v>
-      </c>
-      <c r="L50" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Munro</v>
       </c>
+      <c r="L50" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Munro</v>
+      </c>
       <c r="N50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>C</v>
       </c>
       <c r="P50" s="2" t="s">
@@ -3705,50 +4090,50 @@
         <v>47</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F51" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>MT</v>
-      </c>
-      <c r="G51" s="4" t="str">
         <f t="shared" si="13"/>
         <v>MT</v>
       </c>
-      <c r="H51" s="4" t="str">
+      <c r="G51" s="4" t="str">
         <f t="shared" si="14"/>
         <v>MT</v>
       </c>
-      <c r="I51" s="4" t="str">
+      <c r="H51" s="4" t="str">
         <f t="shared" si="15"/>
         <v>MT</v>
       </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>MT</v>
+      </c>
       <c r="J51" s="4" t="str">
-        <f>VLOOKUP(I51,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>MunroTop</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>MunroTop</v>
-      </c>
-      <c r="L51" s="5" t="str">
         <f t="shared" si="17"/>
         <v>MunroTop</v>
       </c>
+      <c r="L51" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>MunroTop</v>
+      </c>
       <c r="N51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>G</v>
       </c>
       <c r="P51" s="2" t="s">
@@ -3775,50 +4160,50 @@
         <v>48</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F52" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>F</v>
-      </c>
-      <c r="G52" s="4" t="str">
         <f t="shared" si="13"/>
         <v>F</v>
       </c>
-      <c r="H52" s="4" t="str">
+      <c r="G52" s="4" t="str">
         <f t="shared" si="14"/>
         <v>F</v>
       </c>
-      <c r="I52" s="4" t="str">
+      <c r="H52" s="4" t="str">
         <f t="shared" si="15"/>
         <v>F</v>
       </c>
+      <c r="I52" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
       <c r="J52" s="4" t="str">
-        <f>VLOOKUP(I52,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Furth</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Furth</v>
-      </c>
-      <c r="L52" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Furth</v>
       </c>
+      <c r="L52" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Furth</v>
+      </c>
       <c r="N52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>D</v>
       </c>
       <c r="P52" s="2" t="s">
@@ -3845,50 +4230,50 @@
         <v>49</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D53" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F53" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>C</v>
-      </c>
-      <c r="G53" s="4" t="str">
         <f t="shared" si="13"/>
         <v>C</v>
       </c>
-      <c r="H53" s="4" t="str">
+      <c r="G53" s="4" t="str">
         <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="I53" s="4" t="str">
+      <c r="H53" s="4" t="str">
         <f t="shared" si="15"/>
         <v>C</v>
       </c>
+      <c r="I53" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>C</v>
+      </c>
       <c r="J53" s="4" t="str">
-        <f>VLOOKUP(I53,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Corbett</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Corbett</v>
-      </c>
-      <c r="L53" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Corbett</v>
       </c>
+      <c r="L53" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Corbett</v>
+      </c>
       <c r="N53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>DT</v>
       </c>
       <c r="P53" s="2" t="s">
@@ -3915,50 +4300,50 @@
         <v>50</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F54" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>G</v>
-      </c>
-      <c r="G54" s="4" t="str">
         <f t="shared" si="13"/>
         <v>G</v>
       </c>
-      <c r="H54" s="4" t="str">
+      <c r="G54" s="4" t="str">
         <f t="shared" si="14"/>
         <v>G</v>
       </c>
-      <c r="I54" s="4" t="str">
+      <c r="H54" s="4" t="str">
         <f t="shared" si="15"/>
         <v>G</v>
       </c>
+      <c r="I54" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
       <c r="J54" s="4" t="str">
-        <f>VLOOKUP(I54,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Graham</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Graham</v>
-      </c>
-      <c r="L54" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Graham</v>
       </c>
+      <c r="L54" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Graham</v>
+      </c>
       <c r="N54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Hew</v>
       </c>
       <c r="P54" s="2" t="s">
@@ -3985,50 +4370,50 @@
         <v>51</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D55" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F55" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
-      <c r="G55" s="4" t="str">
         <f t="shared" si="13"/>
         <v>D</v>
       </c>
-      <c r="H55" s="4" t="str">
+      <c r="G55" s="4" t="str">
         <f t="shared" si="14"/>
         <v>D</v>
       </c>
-      <c r="I55" s="4" t="str">
+      <c r="H55" s="4" t="str">
         <f t="shared" si="15"/>
         <v>D</v>
       </c>
+      <c r="I55" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>D</v>
+      </c>
       <c r="J55" s="4" t="str">
-        <f>VLOOKUP(I55,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Donald</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Donald</v>
-      </c>
-      <c r="L55" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Donald</v>
       </c>
+      <c r="L55" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Donald</v>
+      </c>
       <c r="N55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>N</v>
       </c>
       <c r="P55" s="2" t="s">
@@ -4055,50 +4440,50 @@
         <v>52</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D56" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F56" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>DT</v>
-      </c>
-      <c r="G56" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DT</v>
       </c>
-      <c r="H56" s="4" t="str">
+      <c r="G56" s="4" t="str">
         <f t="shared" si="14"/>
         <v>DT</v>
       </c>
-      <c r="I56" s="4" t="str">
+      <c r="H56" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DT</v>
       </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>DT</v>
+      </c>
       <c r="J56" s="4" t="str">
-        <f>VLOOKUP(I56,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>DonaldTop</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DonaldTop</v>
-      </c>
-      <c r="L56" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DonaldTop</v>
       </c>
+      <c r="L56" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DonaldTop</v>
+      </c>
       <c r="N56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Dew</v>
       </c>
       <c r="P56" s="2" t="s">
@@ -4125,50 +4510,50 @@
         <v>53</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F57" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Hew</v>
-      </c>
-      <c r="G57" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Hew</v>
       </c>
-      <c r="H57" s="4" t="str">
+      <c r="G57" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Hew</v>
       </c>
-      <c r="I57" s="4" t="str">
+      <c r="H57" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hew</v>
       </c>
+      <c r="I57" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Hew</v>
+      </c>
       <c r="J57" s="4" t="str">
-        <f>VLOOKUP(I57,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Hewitt</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Hewitt</v>
-      </c>
-      <c r="L57" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Hewitt</v>
       </c>
+      <c r="L57" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Hewitt</v>
+      </c>
       <c r="N57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>DDew</v>
       </c>
       <c r="P57" s="2" t="s">
@@ -4195,50 +4580,50 @@
         <v>54</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F58" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>N</v>
-      </c>
-      <c r="G58" s="4" t="str">
         <f t="shared" si="13"/>
         <v>N</v>
       </c>
-      <c r="H58" s="4" t="str">
+      <c r="G58" s="4" t="str">
         <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="I58" s="4" t="str">
+      <c r="H58" s="4" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
+      <c r="I58" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
       <c r="J58" s="4" t="str">
-        <f>VLOOKUP(I58,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Nuttall</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Nuttall</v>
-      </c>
-      <c r="L58" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Nuttall</v>
       </c>
+      <c r="L58" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Nuttall</v>
+      </c>
       <c r="N58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>HF</v>
       </c>
       <c r="P58" s="2" t="s">
@@ -4265,50 +4650,50 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F59" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Dew</v>
-      </c>
-      <c r="G59" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Dew</v>
       </c>
-      <c r="H59" s="4" t="str">
+      <c r="G59" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Dew</v>
       </c>
-      <c r="I59" s="4" t="str">
+      <c r="H59" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Dew</v>
       </c>
+      <c r="I59" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Dew</v>
+      </c>
       <c r="J59" s="4" t="str">
-        <f>VLOOKUP(I59,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Dewey</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Dewey</v>
-      </c>
-      <c r="L59" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Dewey</v>
       </c>
+      <c r="L59" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Dewey</v>
+      </c>
       <c r="N59" s="2">
         <v>4</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="P59" s="2" t="s">
@@ -4335,50 +4720,50 @@
         <v>56</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F60" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>DDew</v>
-      </c>
-      <c r="G60" s="4" t="str">
         <f t="shared" si="13"/>
         <v>DDew</v>
       </c>
-      <c r="H60" s="4" t="str">
+      <c r="G60" s="4" t="str">
         <f t="shared" si="14"/>
         <v>DDew</v>
       </c>
-      <c r="I60" s="4" t="str">
+      <c r="H60" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DDew</v>
       </c>
+      <c r="I60" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>DDew</v>
+      </c>
       <c r="J60" s="4" t="str">
-        <f>VLOOKUP(I60,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>DonaldDewey</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DonaldDewey</v>
-      </c>
-      <c r="L60" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DonaldDewey</v>
       </c>
+      <c r="L60" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DonaldDewey</v>
+      </c>
       <c r="N60" s="2">
         <v>3</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="P60" s="2" t="s">
@@ -4405,50 +4790,50 @@
         <v>57</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F61" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>HF</v>
-      </c>
-      <c r="G61" s="4" t="str">
         <f t="shared" si="13"/>
         <v>HF</v>
       </c>
-      <c r="H61" s="4" t="str">
+      <c r="G61" s="4" t="str">
         <f t="shared" si="14"/>
         <v>HF</v>
       </c>
-      <c r="I61" s="4" t="str">
+      <c r="H61" s="4" t="str">
         <f t="shared" si="15"/>
         <v>HF</v>
       </c>
+      <c r="I61" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>HF</v>
+      </c>
       <c r="J61" s="4" t="str">
-        <f>VLOOKUP(I61,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>HighlandFive</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>HighlandFive</v>
-      </c>
-      <c r="L61" s="5" t="str">
         <f t="shared" si="17"/>
         <v>HighlandFive</v>
       </c>
+      <c r="L61" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>HighlandFive</v>
+      </c>
       <c r="N61" s="2">
         <v>2</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P61" s="2" t="s">
@@ -4475,50 +4860,50 @@
         <v>4</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G62" s="4">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H62" s="4">
+      <c r="G62" s="4">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="I62" s="4" t="str">
+      <c r="H62" s="4">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
+      <c r="I62" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
       <c r="J62" s="4" t="str">
-        <f>VLOOKUP(I62,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump400To499M</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump400To499M</v>
-      </c>
-      <c r="L62" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump400To499M</v>
       </c>
+      <c r="L62" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump400To499M</v>
+      </c>
       <c r="N62" s="2">
         <v>1</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P62" s="2" t="s">
@@ -4545,50 +4930,50 @@
         <v>3</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="G63" s="4">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H63" s="4">
+      <c r="G63" s="4">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="I63" s="4" t="str">
+      <c r="H63" s="4">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
       <c r="J63" s="4" t="str">
-        <f>VLOOKUP(I63,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump300To399M</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump300To399M</v>
-      </c>
-      <c r="L63" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump300To399M</v>
       </c>
+      <c r="L63" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump300To399M</v>
+      </c>
       <c r="N63" s="2">
         <v>0</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P63" s="2" t="s">
@@ -4615,50 +5000,50 @@
         <v>2</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D64" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="G64" s="4">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H64" s="4">
+      <c r="G64" s="4">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I64" s="4" t="str">
+      <c r="H64" s="4">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
+      <c r="I64" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
       <c r="J64" s="4" t="str">
-        <f>VLOOKUP(I64,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump200To299M</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump200To299M</v>
-      </c>
-      <c r="L64" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump200To299M</v>
       </c>
+      <c r="L64" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump200To299M</v>
+      </c>
       <c r="N64" s="2" t="s">
         <v>58</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>W</v>
       </c>
       <c r="P64" s="2" t="s">
@@ -4685,50 +5070,50 @@
         <v>1</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D65" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H65" s="4">
+      <c r="G65" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I65" s="4" t="str">
+      <c r="H65" s="4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
+      <c r="I65" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
       <c r="J65" s="4" t="str">
-        <f>VLOOKUP(I65,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump100To199M</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump100To199M</v>
-      </c>
-      <c r="L65" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump100To199M</v>
       </c>
+      <c r="L65" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump100To199M</v>
+      </c>
       <c r="N65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>WO</v>
       </c>
       <c r="P65" s="2" t="s">
@@ -4755,50 +5140,50 @@
         <v>0</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="4">
+      <c r="G66" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="H66" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="I66" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J66" s="4" t="str">
-        <f>VLOOKUP(I66,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Tump0To99M</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Tump0To99M</v>
-      </c>
-      <c r="L66" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Tump0To99M</v>
       </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Tump0To99M</v>
+      </c>
       <c r="N66" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>B</v>
       </c>
       <c r="P66" s="2" t="s">
@@ -4825,50 +5210,50 @@
         <v>58</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D67" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F67" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>W</v>
-      </c>
-      <c r="G67" s="4" t="str">
         <f t="shared" si="13"/>
         <v>W</v>
       </c>
-      <c r="H67" s="4" t="str">
+      <c r="G67" s="4" t="str">
         <f t="shared" si="14"/>
         <v>W</v>
       </c>
-      <c r="I67" s="4" t="str">
+      <c r="H67" s="4" t="str">
         <f t="shared" si="15"/>
         <v>W</v>
       </c>
+      <c r="I67" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>W</v>
+      </c>
       <c r="J67" s="4" t="str">
-        <f>VLOOKUP(I67,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Wainwright</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Wainwright</v>
-      </c>
-      <c r="L67" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Wainwright</v>
       </c>
+      <c r="L67" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Wainwright</v>
+      </c>
       <c r="N67" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sy</v>
       </c>
       <c r="P67" s="2" t="s">
@@ -4881,7 +5266,7 @@
         <v>193</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" ref="S67:S105" si="19">"[Name("""&amp;B67&amp;""")]"&amp;CHAR(10)&amp;"public "&amp;R67&amp;" "&amp;L67&amp;" { get; set; }"&amp;CHAR(10)</f>
+        <f t="shared" ref="S67:S105" si="20">"[Name("""&amp;B67&amp;""")]"&amp;CHAR(10)&amp;"public "&amp;R67&amp;" "&amp;L67&amp;" { get; set; }"&amp;CHAR(10)</f>
         <v xml:space="preserve">[Name("W")]
 public bool Wainwright { get; set; }
 </v>
@@ -4895,50 +5280,50 @@
         <v>59</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F68" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>WO</v>
-      </c>
-      <c r="G68" s="4" t="str">
         <f t="shared" si="13"/>
         <v>WO</v>
       </c>
-      <c r="H68" s="4" t="str">
+      <c r="G68" s="4" t="str">
         <f t="shared" si="14"/>
         <v>WO</v>
       </c>
-      <c r="I68" s="4" t="str">
+      <c r="H68" s="4" t="str">
         <f t="shared" si="15"/>
         <v>WO</v>
       </c>
+      <c r="I68" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>WO</v>
+      </c>
       <c r="J68" s="4" t="str">
-        <f>VLOOKUP(I68,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>WainwrightOutlyingFell</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>WainwrightOutlyingFell</v>
-      </c>
-      <c r="L68" s="5" t="str">
         <f t="shared" si="17"/>
         <v>WainwrightOutlyingFell</v>
       </c>
+      <c r="L68" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>WainwrightOutlyingFell</v>
+      </c>
       <c r="N68" s="2" t="s">
         <v>62</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Fel</v>
       </c>
       <c r="P68" s="2" t="s">
@@ -4951,7 +5336,7 @@
         <v>193</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("WO")]
 public bool WainwrightOutlyingFell { get; set; }
 </v>
@@ -4965,50 +5350,50 @@
         <v>60</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E69" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F69" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>B</v>
-      </c>
-      <c r="G69" s="4" t="str">
         <f t="shared" si="13"/>
         <v>B</v>
       </c>
-      <c r="H69" s="4" t="str">
+      <c r="G69" s="4" t="str">
         <f t="shared" si="14"/>
         <v>B</v>
       </c>
-      <c r="I69" s="4" t="str">
+      <c r="H69" s="4" t="str">
         <f t="shared" si="15"/>
         <v>B</v>
       </c>
+      <c r="I69" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
       <c r="J69" s="4" t="str">
-        <f>VLOOKUP(I69,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Birkett</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Birkett</v>
-      </c>
-      <c r="L69" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Birkett</v>
       </c>
+      <c r="L69" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Birkett</v>
+      </c>
       <c r="N69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>CoH</v>
       </c>
       <c r="P69" s="2" t="s">
@@ -5021,7 +5406,7 @@
         <v>193</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("B")]
 public bool Birkett { get; set; }
 </v>
@@ -5035,50 +5420,50 @@
         <v>61</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E70" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F70" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Sy</v>
-      </c>
-      <c r="G70" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Sy</v>
       </c>
-      <c r="H70" s="4" t="str">
+      <c r="G70" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Sy</v>
       </c>
-      <c r="I70" s="4" t="str">
+      <c r="H70" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Sy</v>
       </c>
+      <c r="I70" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Sy</v>
+      </c>
       <c r="J70" s="4" t="str">
-        <f>VLOOKUP(I70,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Synge</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Synge</v>
-      </c>
-      <c r="L70" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Synge</v>
       </c>
+      <c r="L70" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Synge</v>
+      </c>
       <c r="N70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="O70" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>CoA</v>
       </c>
       <c r="P70" s="2" t="s">
@@ -5091,7 +5476,7 @@
         <v>193</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Sy")]
 public bool Synge { get; set; }
 </v>
@@ -5105,50 +5490,50 @@
         <v>62</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D71" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E71" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F71" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Fel</v>
-      </c>
-      <c r="G71" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Fel</v>
       </c>
-      <c r="H71" s="4" t="str">
+      <c r="G71" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Fel</v>
       </c>
-      <c r="I71" s="4" t="str">
+      <c r="H71" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Fel</v>
       </c>
+      <c r="I71" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Fel</v>
+      </c>
       <c r="J71" s="4" t="str">
-        <f>VLOOKUP(I71,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Fellranger</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Fellranger</v>
-      </c>
-      <c r="L71" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Fellranger</v>
       </c>
+      <c r="L71" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Fellranger</v>
+      </c>
       <c r="N71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O71" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>CoU</v>
       </c>
       <c r="P71" s="2" t="s">
@@ -5161,7 +5546,7 @@
         <v>193</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Fel")]
 public bool Fellranger { get; set; }
 </v>
@@ -5175,50 +5560,50 @@
         <v>63</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D72" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E72" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F72" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoH</v>
-      </c>
-      <c r="G72" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoH</v>
       </c>
-      <c r="H72" s="4" t="str">
+      <c r="G72" s="4" t="str">
         <f t="shared" si="14"/>
         <v>CoH</v>
       </c>
-      <c r="I72" s="4" t="str">
+      <c r="H72" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoH</v>
       </c>
+      <c r="I72" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoH</v>
+      </c>
       <c r="J72" s="4" t="str">
-        <f>VLOOKUP(I72,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>CountyTopHistoricPre1974</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopHistoricPre1974</v>
-      </c>
-      <c r="L72" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopHistoricPre1974</v>
       </c>
+      <c r="L72" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopHistoricPre1974</v>
+      </c>
       <c r="N72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O72" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>CoL</v>
       </c>
       <c r="P72" s="2" t="s">
@@ -5231,7 +5616,7 @@
         <v>193</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoH")]
 public bool CountyTopHistoricPre1974 { get; set; }
 </v>
@@ -5245,50 +5630,50 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D73" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E73" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Twin</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoH=</v>
-      </c>
-      <c r="G73" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoH=</v>
       </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>CoH=</v>
+      </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>CoH</v>
-      </c>
-      <c r="I73" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoH</v>
       </c>
+      <c r="I73" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoH</v>
+      </c>
       <c r="J73" s="4" t="str">
-        <f>VLOOKUP(I73,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>CountyTopHistoricPre1974</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopHistoricPre1974Twin</v>
-      </c>
-      <c r="L73" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopHistoricPre1974Twin</v>
       </c>
+      <c r="L73" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopHistoricPre1974Twin</v>
+      </c>
       <c r="N73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>SIB</v>
       </c>
       <c r="P73" s="2" t="s">
@@ -5301,7 +5686,7 @@
         <v>193</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoH=")]
 public bool CountyTopHistoricPre1974Twin { get; set; }
 </v>
@@ -5315,50 +5700,50 @@
         <v>65</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D74" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E74" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F74" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoU</v>
-      </c>
-      <c r="G74" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoU</v>
       </c>
-      <c r="H74" s="4" t="str">
+      <c r="G74" s="4" t="str">
         <f t="shared" si="14"/>
         <v>CoU</v>
       </c>
-      <c r="I74" s="4" t="str">
+      <c r="H74" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoU</v>
       </c>
+      <c r="I74" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoU</v>
+      </c>
       <c r="J74" s="4" t="str">
-        <f>VLOOKUP(I74,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopCurrentCountyorUnitaryAuthority</v>
-      </c>
-      <c r="L74" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
+      <c r="L74" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopCurrentCountyorUnitaryAuthority</v>
+      </c>
       <c r="N74" s="2" t="s">
         <v>90</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Dil</v>
       </c>
       <c r="P74" s="2" t="s">
@@ -5371,7 +5756,7 @@
         <v>193</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoU")]
 public bool CountyTopCurrentCountyorUnitaryAuthority { get; set; }
 </v>
@@ -5385,50 +5770,50 @@
         <v>66</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D75" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E75" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Twin</v>
       </c>
       <c r="F75" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoU=</v>
-      </c>
-      <c r="G75" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoU=</v>
       </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>CoU=</v>
+      </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>CoU</v>
-      </c>
-      <c r="I75" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoU</v>
       </c>
+      <c r="I75" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoU</v>
+      </c>
       <c r="J75" s="4" t="str">
-        <f>VLOOKUP(I75,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" ref="J75:J106" si="21">VLOOKUP(I75,$O$43:$Q$89,3,FALSE)</f>
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
-      </c>
-      <c r="L75" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
+      <c r="L75" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
+      </c>
       <c r="N75" s="2" t="s">
         <v>92</v>
       </c>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>A</v>
       </c>
       <c r="P75" s="2" t="s">
@@ -5441,7 +5826,7 @@
         <v>193</v>
       </c>
       <c r="S75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoU=")]
 public bool CountyTopCurrentCountyorUnitaryAuthorityTwin { get; set; }
 </v>
@@ -5455,50 +5840,50 @@
         <v>67</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D76" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E76" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F76" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoA</v>
-      </c>
-      <c r="G76" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoA</v>
       </c>
-      <c r="H76" s="4" t="str">
+      <c r="G76" s="4" t="str">
         <f t="shared" si="14"/>
         <v>CoA</v>
       </c>
-      <c r="I76" s="4" t="str">
+      <c r="H76" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoA</v>
       </c>
+      <c r="I76" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoA</v>
+      </c>
       <c r="J76" s="4" t="str">
-        <f>VLOOKUP(I76,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="K76" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopAdministrative1974ToMid1990s</v>
-      </c>
-      <c r="L76" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
+      <c r="L76" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopAdministrative1974ToMid1990s</v>
+      </c>
       <c r="N76" s="2" t="s">
         <v>91</v>
       </c>
       <c r="O76" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>VL</v>
       </c>
       <c r="P76" s="2" t="s">
@@ -5511,7 +5896,7 @@
         <v>193</v>
       </c>
       <c r="S76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoA")]
 public bool CountyTopAdministrative1974ToMid1990s { get; set; }
 </v>
@@ -5525,50 +5910,50 @@
         <v>68</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D77" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E77" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Twin</v>
       </c>
       <c r="F77" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoA=</v>
-      </c>
-      <c r="G77" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoA=</v>
       </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>CoA=</v>
+      </c>
       <c r="H77" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>CoA</v>
-      </c>
-      <c r="I77" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoA</v>
       </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoA</v>
+      </c>
       <c r="J77" s="4" t="str">
-        <f>VLOOKUP(I77,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="K77" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopAdministrative1974ToMid1990sTwin</v>
-      </c>
-      <c r="L77" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
+      <c r="L77" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopAdministrative1974ToMid1990sTwin</v>
+      </c>
       <c r="N77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>O</v>
       </c>
       <c r="P77" s="2" t="s">
@@ -5581,7 +5966,7 @@
         <v>193</v>
       </c>
       <c r="S77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoA=")]
 public bool CountyTopAdministrative1974ToMid1990sTwin { get; set; }
 </v>
@@ -5595,50 +5980,50 @@
         <v>69</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D78" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E78" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F78" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoL</v>
-      </c>
-      <c r="G78" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoL</v>
       </c>
-      <c r="H78" s="4" t="str">
+      <c r="G78" s="4" t="str">
         <f t="shared" si="14"/>
         <v>CoL</v>
       </c>
-      <c r="I78" s="4" t="str">
+      <c r="H78" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoL</v>
       </c>
+      <c r="I78" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoL</v>
+      </c>
       <c r="J78" s="4" t="str">
-        <f>VLOOKUP(I78,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>CountyTopCurrentLondonBorough</v>
       </c>
       <c r="K78" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopCurrentLondonBorough</v>
-      </c>
-      <c r="L78" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopCurrentLondonBorough</v>
       </c>
+      <c r="L78" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopCurrentLondonBorough</v>
+      </c>
       <c r="N78" s="2" t="s">
         <v>96</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Un</v>
       </c>
       <c r="P78" s="2" t="s">
@@ -5651,7 +6036,7 @@
         <v>193</v>
       </c>
       <c r="S78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoL")]
 public bool CountyTopCurrentLondonBorough { get; set; }
 </v>
@@ -5665,50 +6050,50 @@
         <v>70</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D79" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E79" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Twin</v>
       </c>
       <c r="F79" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CoL=</v>
-      </c>
-      <c r="G79" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CoL=</v>
       </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>CoL=</v>
+      </c>
       <c r="H79" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>CoL</v>
-      </c>
-      <c r="I79" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CoL</v>
       </c>
+      <c r="I79" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CoL</v>
+      </c>
       <c r="J79" s="4" t="str">
-        <f>VLOOKUP(I79,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>CountyTopCurrentLondonBorough</v>
       </c>
       <c r="K79" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CountyTopCurrentLondonBoroughTwin</v>
-      </c>
-      <c r="L79" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CountyTopCurrentLondonBoroughTwin</v>
       </c>
+      <c r="L79" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CountyTopCurrentLondonBoroughTwin</v>
+      </c>
       <c r="N79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Tu</v>
       </c>
       <c r="P79" s="2" t="s">
@@ -5721,7 +6106,7 @@
         <v>193</v>
       </c>
       <c r="S79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CoL=")]
 public bool CountyTopCurrentLondonBoroughTwin { get; set; }
 </v>
@@ -5735,50 +6120,50 @@
         <v>71</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D80" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F80" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>SIB</v>
-      </c>
-      <c r="G80" s="4" t="str">
         <f t="shared" si="13"/>
         <v>SIB</v>
       </c>
-      <c r="H80" s="4" t="str">
+      <c r="G80" s="4" t="str">
         <f t="shared" si="14"/>
         <v>SIB</v>
       </c>
-      <c r="I80" s="4" t="str">
+      <c r="H80" s="4" t="str">
         <f t="shared" si="15"/>
         <v>SIB</v>
       </c>
+      <c r="I80" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>SIB</v>
+      </c>
       <c r="J80" s="4" t="str">
-        <f>VLOOKUP(I80,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>SignificantIslandofBritain</v>
       </c>
       <c r="K80" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SignificantIslandofBritain</v>
-      </c>
-      <c r="L80" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SignificantIslandofBritain</v>
       </c>
+      <c r="L80" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SignificantIslandofBritain</v>
+      </c>
       <c r="N80" s="2" t="s">
         <v>77</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Mur</v>
       </c>
       <c r="P80" s="2" t="s">
@@ -5791,7 +6176,7 @@
         <v>193</v>
       </c>
       <c r="S80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("SIB")]
 public bool SignificantIslandofBritain { get; set; }
 </v>
@@ -5805,50 +6190,50 @@
         <v>72</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sub</v>
       </c>
       <c r="D81" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E81" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F81" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Ma</v>
-      </c>
-      <c r="G81" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Ma</v>
       </c>
-      <c r="H81" s="4" t="str">
+      <c r="G81" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Ma</v>
       </c>
-      <c r="I81" s="4" t="str">
+      <c r="H81" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ma</v>
       </c>
+      <c r="I81" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Ma</v>
+      </c>
       <c r="J81" s="4" t="str">
-        <f>VLOOKUP(I81,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Marilyn</v>
       </c>
       <c r="K81" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SubMarilyn</v>
-      </c>
-      <c r="L81" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SubMarilyn</v>
       </c>
+      <c r="L81" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SubMarilyn</v>
+      </c>
       <c r="N81" s="2" t="s">
         <v>78</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>CT</v>
       </c>
       <c r="P81" s="2" t="s">
@@ -5861,7 +6246,7 @@
         <v>193</v>
       </c>
       <c r="S81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("sMa")]
 public bool SubMarilyn { get; set; }
 </v>
@@ -5875,50 +6260,50 @@
         <v>73</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sub</v>
       </c>
       <c r="D82" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E82" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F82" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Hu</v>
-      </c>
-      <c r="G82" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Hu</v>
       </c>
-      <c r="H82" s="4" t="str">
+      <c r="G82" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Hu</v>
       </c>
-      <c r="I82" s="4" t="str">
+      <c r="H82" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Hu</v>
       </c>
+      <c r="I82" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Hu</v>
+      </c>
       <c r="J82" s="4" t="str">
-        <f>VLOOKUP(I82,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Hump</v>
       </c>
       <c r="K82" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SubHump</v>
-      </c>
-      <c r="L82" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SubHump</v>
       </c>
+      <c r="L82" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SubHump</v>
+      </c>
       <c r="N82" s="2" t="s">
         <v>79</v>
       </c>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>GT</v>
       </c>
       <c r="P82" s="2" t="s">
@@ -5931,7 +6316,7 @@
         <v>193</v>
       </c>
       <c r="S82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("sHu")]
 public bool SubHump { get; set; }
 </v>
@@ -5945,45 +6330,45 @@
         <v>74</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sub</v>
       </c>
       <c r="D83" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E83" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F83" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Sim</v>
-      </c>
-      <c r="G83" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Sim</v>
       </c>
-      <c r="H83" s="4" t="str">
+      <c r="G83" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Sim</v>
       </c>
-      <c r="I83" s="4" t="str">
+      <c r="H83" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Sim</v>
       </c>
+      <c r="I83" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Sim</v>
+      </c>
       <c r="J83" s="4" t="str">
-        <f>VLOOKUP(I83,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Simm</v>
       </c>
       <c r="K83" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SubSimm</v>
-      </c>
-      <c r="L83" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SubSimm</v>
       </c>
+      <c r="L83" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SubSimm</v>
+      </c>
       <c r="N83" s="2" t="s">
         <v>137</v>
       </c>
@@ -6000,7 +6385,7 @@
         <v>193</v>
       </c>
       <c r="S83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("sSim")]
 public bool SubSimm { get; set; }
 </v>
@@ -6014,50 +6399,50 @@
         <v>75</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sub</v>
       </c>
       <c r="D84" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E84" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F84" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="G84" s="4" t="str">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="H84" s="4" t="str">
+      <c r="G84" s="4" t="str">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="I84" s="4" t="str">
+      <c r="H84" s="4" t="str">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
+      <c r="I84" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
       <c r="J84" s="4" t="str">
-        <f>VLOOKUP(I84,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Dodd</v>
       </c>
       <c r="K84" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SubDodd</v>
-      </c>
-      <c r="L84" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SubDodd</v>
       </c>
+      <c r="L84" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SubDodd</v>
+      </c>
       <c r="N84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="O84" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Bg</v>
       </c>
       <c r="P84" s="2" t="s">
@@ -6070,7 +6455,7 @@
         <v>193</v>
       </c>
       <c r="S84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("s5")]
 public bool SubDodd { get; set; }
 </v>
@@ -6084,50 +6469,50 @@
         <v>76</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sub</v>
       </c>
       <c r="D85" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E85" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F85" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G85" s="4" t="str">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H85" s="4" t="str">
+      <c r="G85" s="4" t="str">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="I85" s="4" t="str">
+      <c r="H85" s="4" t="str">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
+      <c r="I85" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
       <c r="J85" s="4" t="str">
-        <f>VLOOKUP(I85,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Tump400To499M</v>
       </c>
       <c r="K85" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>SubTump400To499M</v>
-      </c>
-      <c r="L85" s="5" t="str">
         <f t="shared" si="17"/>
         <v>SubTump400To499M</v>
       </c>
+      <c r="L85" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SubTump400To499M</v>
+      </c>
       <c r="N85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="O85" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>T100</v>
       </c>
       <c r="P85" s="2" t="s">
@@ -6140,7 +6525,7 @@
         <v>193</v>
       </c>
       <c r="S85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("s4")]
 public bool SubTump400To499M { get; set; }
 </v>
@@ -6154,50 +6539,50 @@
         <v>77</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D86" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E86" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F86" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Mur</v>
-      </c>
-      <c r="G86" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Mur</v>
       </c>
-      <c r="H86" s="4" t="str">
+      <c r="G86" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Mur</v>
       </c>
-      <c r="I86" s="4" t="str">
+      <c r="H86" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Mur</v>
       </c>
+      <c r="I86" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Mur</v>
+      </c>
       <c r="J86" s="4" t="str">
-        <f>VLOOKUP(I86,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Murdo</v>
       </c>
       <c r="K86" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Murdo</v>
-      </c>
-      <c r="L86" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Murdo</v>
       </c>
+      <c r="L86" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Murdo</v>
+      </c>
       <c r="N86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="O86" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="P86" s="2" t="s">
@@ -6210,7 +6595,7 @@
         <v>193</v>
       </c>
       <c r="S86" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Mur")]
 public bool Murdo { get; set; }
 </v>
@@ -6224,50 +6609,50 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D87" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E87" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F87" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>CT</v>
-      </c>
-      <c r="G87" s="4" t="str">
         <f t="shared" si="13"/>
         <v>CT</v>
       </c>
-      <c r="H87" s="4" t="str">
+      <c r="G87" s="4" t="str">
         <f t="shared" si="14"/>
         <v>CT</v>
       </c>
-      <c r="I87" s="4" t="str">
+      <c r="H87" s="4" t="str">
         <f t="shared" si="15"/>
         <v>CT</v>
       </c>
+      <c r="I87" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>CT</v>
+      </c>
       <c r="J87" s="4" t="str">
-        <f>VLOOKUP(I87,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>CorbettTop</v>
       </c>
       <c r="K87" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>CorbettTop</v>
-      </c>
-      <c r="L87" s="5" t="str">
         <f t="shared" si="17"/>
         <v>CorbettTop</v>
       </c>
+      <c r="L87" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>CorbettTop</v>
+      </c>
       <c r="N87" s="2" t="s">
         <v>83</v>
       </c>
       <c r="O87" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Cm</v>
       </c>
       <c r="P87" s="2" t="s">
@@ -6280,7 +6665,7 @@
         <v>193</v>
       </c>
       <c r="S87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("CT")]
 public bool CorbettTop { get; set; }
 </v>
@@ -6294,50 +6679,50 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D88" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E88" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F88" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>GT</v>
-      </c>
-      <c r="G88" s="4" t="str">
         <f t="shared" si="13"/>
         <v>GT</v>
       </c>
-      <c r="H88" s="4" t="str">
+      <c r="G88" s="4" t="str">
         <f t="shared" si="14"/>
         <v>GT</v>
       </c>
-      <c r="I88" s="4" t="str">
+      <c r="H88" s="4" t="str">
         <f t="shared" si="15"/>
         <v>GT</v>
       </c>
+      <c r="I88" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>GT</v>
+      </c>
       <c r="J88" s="4" t="str">
-        <f>VLOOKUP(I88,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>GrahamTop</v>
       </c>
       <c r="K88" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>GrahamTop</v>
-      </c>
-      <c r="L88" s="5" t="str">
         <f t="shared" si="17"/>
         <v>GrahamTop</v>
       </c>
+      <c r="L88" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>GrahamTop</v>
+      </c>
       <c r="N88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="O88" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Ca</v>
       </c>
       <c r="P88" s="2" t="s">
@@ -6350,7 +6735,7 @@
         <v>193</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("GT")]
 public bool GrahamTop { get; set; }
 </v>
@@ -6364,50 +6749,50 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D89" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E89" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F89" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>BL</v>
-      </c>
-      <c r="G89" s="4" t="str">
         <f t="shared" si="13"/>
         <v>BL</v>
       </c>
-      <c r="H89" s="4" t="str">
+      <c r="G89" s="4" t="str">
         <f t="shared" si="14"/>
         <v>BL</v>
       </c>
-      <c r="I89" s="4" t="str">
+      <c r="H89" s="4" t="str">
         <f t="shared" si="15"/>
         <v>BL</v>
       </c>
+      <c r="I89" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>BL</v>
+      </c>
       <c r="J89" s="4" t="str">
-        <f>VLOOKUP(I89,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>BuxtonAndLewis</v>
       </c>
       <c r="K89" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>BuxtonAndLewis</v>
-      </c>
-      <c r="L89" s="5" t="str">
         <f t="shared" si="17"/>
         <v>BuxtonAndLewis</v>
       </c>
+      <c r="L89" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>BuxtonAndLewis</v>
+      </c>
       <c r="N89" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O89" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Bin</v>
       </c>
       <c r="P89" s="2" t="s">
@@ -6420,7 +6805,7 @@
         <v>193</v>
       </c>
       <c r="S89" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("BL")]
 public bool BuxtonAndLewis { get; set; }
 </v>
@@ -6434,50 +6819,50 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D90" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E90" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F90" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Bg</v>
-      </c>
-      <c r="G90" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Bg</v>
       </c>
-      <c r="H90" s="4" t="str">
+      <c r="G90" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Bg</v>
       </c>
-      <c r="I90" s="4" t="str">
+      <c r="H90" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Bg</v>
       </c>
+      <c r="I90" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Bg</v>
+      </c>
       <c r="J90" s="4" t="str">
-        <f>VLOOKUP(I90,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Bridge</v>
       </c>
       <c r="K90" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Bridge</v>
-      </c>
-      <c r="L90" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Bridge</v>
       </c>
+      <c r="L90" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Bridge</v>
+      </c>
       <c r="R90" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S90" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Bg")]
 public bool Bridge { get; set; }
 </v>
@@ -6491,50 +6876,50 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D91" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E91" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F91" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="G91" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Y</v>
       </c>
-      <c r="H91" s="4" t="str">
+      <c r="G91" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="I91" s="4" t="str">
+      <c r="H91" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Y</v>
       </c>
+      <c r="I91" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Y</v>
+      </c>
       <c r="J91" s="4" t="str">
-        <f>VLOOKUP(I91,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Yeaman</v>
       </c>
       <c r="K91" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Yeaman</v>
-      </c>
-      <c r="L91" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Yeaman</v>
       </c>
+      <c r="L91" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Yeaman</v>
+      </c>
       <c r="R91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S91" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Y")]
 public bool Yeaman { get; set; }
 </v>
@@ -6548,50 +6933,50 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D92" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E92" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F92" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Cm</v>
-      </c>
-      <c r="G92" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Cm</v>
       </c>
-      <c r="H92" s="4" t="str">
+      <c r="G92" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Cm</v>
       </c>
-      <c r="I92" s="4" t="str">
+      <c r="H92" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Cm</v>
       </c>
+      <c r="I92" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Cm</v>
+      </c>
       <c r="J92" s="4" t="str">
-        <f>VLOOKUP(I92,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Clem</v>
       </c>
       <c r="K92" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Clem</v>
-      </c>
-      <c r="L92" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Clem</v>
       </c>
+      <c r="L92" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Clem</v>
+      </c>
       <c r="R92" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S92" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Cm")]
 public bool Clem { get; set; }
 </v>
@@ -6605,50 +6990,50 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D93" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E93" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F93" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>T100</v>
-      </c>
-      <c r="G93" s="4" t="str">
         <f t="shared" si="13"/>
         <v>T100</v>
       </c>
-      <c r="H93" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="14"/>
         <v>T100</v>
       </c>
-      <c r="I93" s="4" t="str">
+      <c r="H93" s="4" t="str">
         <f t="shared" si="15"/>
         <v>T100</v>
       </c>
+      <c r="I93" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>T100</v>
+      </c>
       <c r="J93" s="4" t="str">
-        <f>VLOOKUP(I93,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Trail100</v>
       </c>
       <c r="K93" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Trail100</v>
-      </c>
-      <c r="L93" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Trail100</v>
       </c>
+      <c r="L93" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Trail100</v>
+      </c>
       <c r="R93" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S93" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("T100")]
 public bool Trail100 { get; set; }
 </v>
@@ -6662,50 +7047,50 @@
         <v>85</v>
       </c>
       <c r="C94" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D94" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Deleted</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F94" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>xMT</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>MT</v>
-      </c>
-      <c r="H94" s="4" t="str">
         <f t="shared" si="14"/>
         <v>MT</v>
       </c>
-      <c r="I94" s="4" t="str">
+      <c r="H94" s="4" t="str">
         <f t="shared" si="15"/>
         <v>MT</v>
       </c>
+      <c r="I94" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>MT</v>
+      </c>
       <c r="J94" s="4" t="str">
-        <f>VLOOKUP(I94,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>MunroTop</v>
       </c>
       <c r="K94" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DeletedMunroTop</v>
-      </c>
-      <c r="L94" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DeletedMunroTop</v>
       </c>
+      <c r="L94" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DeletedMunroTop</v>
+      </c>
       <c r="R94" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("xMT")]
 public bool DeletedMunroTop { get; set; }
 </v>
@@ -6719,50 +7104,50 @@
         <v>86</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D95" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Deleted</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F95" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>xC</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>C</v>
-      </c>
-      <c r="H95" s="4" t="str">
         <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="I95" s="4" t="str">
+      <c r="H95" s="4" t="str">
         <f t="shared" si="15"/>
         <v>C</v>
       </c>
+      <c r="I95" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>C</v>
+      </c>
       <c r="J95" s="4" t="str">
-        <f>VLOOKUP(I95,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Corbett</v>
       </c>
       <c r="K95" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DeletedCorbett</v>
-      </c>
-      <c r="L95" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DeletedCorbett</v>
       </c>
+      <c r="L95" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DeletedCorbett</v>
+      </c>
       <c r="R95" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S95" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("xC")]
 public bool DeletedCorbett { get; set; }
 </v>
@@ -6776,50 +7161,50 @@
         <v>87</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D96" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Deleted</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F96" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>xG</v>
       </c>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>G</v>
-      </c>
-      <c r="H96" s="4" t="str">
         <f t="shared" si="14"/>
         <v>G</v>
       </c>
-      <c r="I96" s="4" t="str">
+      <c r="H96" s="4" t="str">
         <f t="shared" si="15"/>
         <v>G</v>
       </c>
+      <c r="I96" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
       <c r="J96" s="4" t="str">
-        <f>VLOOKUP(I96,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Graham</v>
       </c>
       <c r="K96" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DeletedGraham</v>
-      </c>
-      <c r="L96" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DeletedGraham</v>
       </c>
+      <c r="L96" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DeletedGraham</v>
+      </c>
       <c r="R96" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S96" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("xG")]
 public bool DeletedGraham { get; set; }
 </v>
@@ -6833,50 +7218,50 @@
         <v>88</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D97" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Deleted</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F97" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>xN</v>
       </c>
       <c r="G97" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>N</v>
-      </c>
-      <c r="H97" s="4" t="str">
         <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="I97" s="4" t="str">
+      <c r="H97" s="4" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
+      <c r="I97" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
       <c r="J97" s="4" t="str">
-        <f>VLOOKUP(I97,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Nuttall</v>
       </c>
       <c r="K97" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DeletedNuttall</v>
-      </c>
-      <c r="L97" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DeletedNuttall</v>
       </c>
+      <c r="L97" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DeletedNuttall</v>
+      </c>
       <c r="R97" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S97" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("xN")]
 public bool DeletedNuttall { get; set; }
 </v>
@@ -6890,50 +7275,50 @@
         <v>89</v>
       </c>
       <c r="C98" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D98" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Deleted</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F98" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>xDT</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>DT</v>
-      </c>
-      <c r="H98" s="4" t="str">
         <f t="shared" si="14"/>
         <v>DT</v>
       </c>
-      <c r="I98" s="4" t="str">
+      <c r="H98" s="4" t="str">
         <f t="shared" si="15"/>
         <v>DT</v>
       </c>
+      <c r="I98" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>DT</v>
+      </c>
       <c r="J98" s="4" t="str">
-        <f>VLOOKUP(I98,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>DonaldTop</v>
       </c>
       <c r="K98" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>DeletedDonaldTop</v>
-      </c>
-      <c r="L98" s="5" t="str">
         <f t="shared" si="17"/>
         <v>DeletedDonaldTop</v>
       </c>
+      <c r="L98" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>DeletedDonaldTop</v>
+      </c>
       <c r="R98" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("xDT")]
 public bool DeletedDonaldTop { get; set; }
 </v>
@@ -6947,50 +7332,50 @@
         <v>90</v>
       </c>
       <c r="C99" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D99" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F99" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Dil</v>
-      </c>
-      <c r="G99" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Dil</v>
       </c>
-      <c r="H99" s="4" t="str">
+      <c r="G99" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Dil</v>
       </c>
-      <c r="I99" s="4" t="str">
+      <c r="H99" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Dil</v>
       </c>
+      <c r="I99" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Dil</v>
+      </c>
       <c r="J99" s="4" t="str">
-        <f>VLOOKUP(I99,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Dillon</v>
       </c>
       <c r="K99" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Dillon</v>
-      </c>
-      <c r="L99" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Dillon</v>
       </c>
+      <c r="L99" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Dillon</v>
+      </c>
       <c r="R99" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S99" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Dil")]
 public bool Dillon { get; set; }
 </v>
@@ -7004,50 +7389,50 @@
         <v>91</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D100" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F100" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>VL</v>
-      </c>
-      <c r="G100" s="4" t="str">
         <f t="shared" si="13"/>
         <v>VL</v>
       </c>
-      <c r="H100" s="4" t="str">
+      <c r="G100" s="4" t="str">
         <f t="shared" si="14"/>
         <v>VL</v>
       </c>
-      <c r="I100" s="4" t="str">
+      <c r="H100" s="4" t="str">
         <f t="shared" si="15"/>
         <v>VL</v>
       </c>
+      <c r="I100" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>VL</v>
+      </c>
       <c r="J100" s="4" t="str">
-        <f>VLOOKUP(I100,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>VandeleurLynam</v>
       </c>
       <c r="K100" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>VandeleurLynam</v>
-      </c>
-      <c r="L100" s="5" t="str">
         <f t="shared" si="17"/>
         <v>VandeleurLynam</v>
       </c>
+      <c r="L100" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>VandeleurLynam</v>
+      </c>
       <c r="R100" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S100" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("VL")]
 public bool VandeleurLynam { get; set; }
 </v>
@@ -7061,50 +7446,50 @@
         <v>92</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D101" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F101" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>A</v>
-      </c>
-      <c r="G101" s="4" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="H101" s="4" t="str">
+      <c r="G101" s="4" t="str">
         <f t="shared" si="14"/>
         <v>A</v>
       </c>
-      <c r="I101" s="4" t="str">
+      <c r="H101" s="4" t="str">
         <f t="shared" si="15"/>
         <v>A</v>
       </c>
+      <c r="I101" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
       <c r="J101" s="4" t="str">
-        <f>VLOOKUP(I101,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Arderin</v>
       </c>
       <c r="K101" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Arderin</v>
-      </c>
-      <c r="L101" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Arderin</v>
       </c>
+      <c r="L101" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Arderin</v>
+      </c>
       <c r="R101" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S101" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("A")]
 public bool Arderin { get; set; }
 </v>
@@ -7118,50 +7503,50 @@
         <v>93</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D102" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F102" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Ca</v>
-      </c>
-      <c r="G102" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Ca</v>
       </c>
-      <c r="H102" s="4" t="str">
+      <c r="G102" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Ca</v>
       </c>
-      <c r="I102" s="4" t="str">
+      <c r="H102" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Ca</v>
       </c>
+      <c r="I102" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Ca</v>
+      </c>
       <c r="J102" s="4" t="str">
-        <f>VLOOKUP(I102,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Carn</v>
       </c>
       <c r="K102" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Carn</v>
-      </c>
-      <c r="L102" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Carn</v>
       </c>
+      <c r="L102" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Carn</v>
+      </c>
       <c r="R102" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S102" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Ca")]
 public bool Carn { get; set; }
 </v>
@@ -7175,50 +7560,50 @@
         <v>94</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D103" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F103" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Bin</v>
-      </c>
-      <c r="G103" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Bin</v>
       </c>
-      <c r="H103" s="4" t="str">
+      <c r="G103" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Bin</v>
       </c>
-      <c r="I103" s="4" t="str">
+      <c r="H103" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Bin</v>
       </c>
+      <c r="I103" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Bin</v>
+      </c>
       <c r="J103" s="4" t="str">
-        <f>VLOOKUP(I103,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Binnion</v>
       </c>
       <c r="K103" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Binnion</v>
-      </c>
-      <c r="L103" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Binnion</v>
       </c>
+      <c r="L103" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Binnion</v>
+      </c>
       <c r="R103" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S103" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Bin")]
 public bool Binnion { get; set; }
 </v>
@@ -7232,50 +7617,50 @@
         <v>95</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D104" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F104" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>O</v>
-      </c>
-      <c r="G104" s="4" t="str">
         <f t="shared" si="13"/>
         <v>O</v>
       </c>
-      <c r="H104" s="4" t="str">
+      <c r="G104" s="4" t="str">
         <f t="shared" si="14"/>
         <v>O</v>
       </c>
-      <c r="I104" s="4" t="str">
+      <c r="H104" s="4" t="str">
         <f t="shared" si="15"/>
         <v>O</v>
       </c>
+      <c r="I104" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>O</v>
+      </c>
       <c r="J104" s="4" t="str">
-        <f>VLOOKUP(I104,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>OtherList</v>
       </c>
       <c r="K104" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>OtherList</v>
-      </c>
-      <c r="L104" s="5" t="str">
         <f t="shared" si="17"/>
         <v>OtherList</v>
       </c>
+      <c r="L104" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>OtherList</v>
+      </c>
       <c r="R104" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S104" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("O")]
 public bool OtherList { get; set; }
 </v>
@@ -7289,53 +7674,1517 @@
         <v>96</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="D105" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F105" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>Un</v>
-      </c>
-      <c r="G105" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Un</v>
       </c>
-      <c r="H105" s="4" t="str">
+      <c r="G105" s="4" t="str">
         <f t="shared" si="14"/>
         <v>Un</v>
       </c>
-      <c r="I105" s="4" t="str">
+      <c r="H105" s="4" t="str">
         <f t="shared" si="15"/>
         <v>Un</v>
       </c>
+      <c r="I105" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>Un</v>
+      </c>
       <c r="J105" s="4" t="str">
-        <f>VLOOKUP(I105,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Unclassified</v>
       </c>
       <c r="K105" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>Unclassified</v>
-      </c>
-      <c r="L105" s="5" t="str">
         <f t="shared" si="17"/>
         <v>Unclassified</v>
       </c>
+      <c r="L105" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>Unclassified</v>
+      </c>
       <c r="R105" s="2" t="s">
         <v>193</v>
       </c>
       <c r="S105" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">[Name("Un")]
 public bool Unclassified { get; set; }
 </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D06681-04E7-442F-B5D9-FAC6AE6C4952}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>Fields!L43</f>
+        <v>Marilyn</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>"x =&gt; x."&amp;A2</f>
+        <v>x =&gt; x.Marilyn</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>"new ("""&amp;B2&amp;""", """&amp;C2&amp;""", "&amp;E2&amp;", """&amp;D2&amp;"""),"</f>
+        <v>new ("Marilyns", "Marilyn", x =&gt; x.Marilyn, "British and Irish hills of any height with a drop of at least 150 metres on all sides. The geographical area includes the Isle of Man and the islands of St Kilda."),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>Fields!L44</f>
+        <v>MarilynTwin</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E64" si="0">"x =&gt; x."&amp;A3</f>
+        <v>x =&gt; x.MarilynTwin</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F64" si="1">"new ("""&amp;B3&amp;""", """&amp;C3&amp;""", "&amp;E3&amp;", """&amp;D3&amp;"""),"</f>
+        <v>new ("Marilyn twins", "Marilyn twin", x =&gt; x.MarilynTwin, "A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland."),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>Fields!L45</f>
+        <v>Hump</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Hump</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("HuMPs", "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence."),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>Fields!L46</f>
+        <v>HumpTwin</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.HumpTwin</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("HuMP twins", "HuMP twin", x =&gt; x.HumpTwin, "A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m."),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>Fields!L47</f>
+        <v>Tump</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs", "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>Fields!L48</f>
+        <v>Simm</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Simm</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Simms", "Simm", x =&gt; x.Simm, "British hills at least 600 metres high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f>Fields!L49</f>
+        <v>Dodd</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Dodd</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Dodds", "Dodd", x =&gt; x.Dodd, "Hills in Scotland, England, Wales, the Isle of Man and Ireland between 500m and 599.9m high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f>Fields!L50</f>
+        <v>Munro</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Munro</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Munros", "Munro", x =&gt; x.Munro, "Scottish hills at least 3000 feet in height regarded by the SMC as distinct and separate mountains, based on a list originally published in 1891."),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>Fields!L51</f>
+        <v>MunroTop</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.MunroTop</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Munro Tops", "Munro Top", x =&gt; x.MunroTop, "Subsidiary summits meeting the height criterion of Munros are designated Munro Tops."),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>Fields!L52</f>
+        <v>Furth</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Furth</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Furths", "Furth", x =&gt; x.Furth, "Summits equivalent to the Munros and Tops in England, Wales and Ireland on the SMC's list are known as Furths."),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>Fields!L53</f>
+        <v>Corbett</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Corbett</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Corbetts", "Corbett", x =&gt; x.Corbett, "Scottish hills between 2500 and 2999 feet high with a drop of at least 500 feet (152.4m) on all sides."),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>Fields!L54</f>
+        <v>Graham</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Graham</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Grahams", "Graham", x =&gt; x.Graham, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>Fields!L55</f>
+        <v>Donald</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Donald</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donalds", "Donald", x =&gt; x.Donald, "Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet."),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f>Fields!L56</f>
+        <v>DonaldTop</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DonaldTop</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donald Tops", "Donald Top", x =&gt; x.DonaldTop, ""),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f>Fields!L57</f>
+        <v>Hewitt</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Hewitt</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Hewitts", "Hewitt", x =&gt; x.Hewitt, "Hills in England, Wales and Ireland at least 2000 feet high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
+        <f>Fields!L58</f>
+        <v>Nuttall</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Nuttall</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Nuttalls", "Nuttall", x =&gt; x.Nuttall, "Hills in England and Wales at least 2000 feet high with a drop of at least 15 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <f>Fields!L59</f>
+        <v>Dewey</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Dewey</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deweys", "Dewey", x =&gt; x.Dewey, "Hills in England, Wales and the Isle of Man at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
+        <f>Fields!L60</f>
+        <v>DonaldDewey</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DonaldDewey</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donald Deweys", "Donald Dewey", x =&gt; x.DonaldDewey, "Hills in the Scottish Lowlands at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f>Fields!L61</f>
+        <v>HighlandFive</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.HighlandFive</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Highland Fives", "Highland Five", x =&gt; x.HighlandFive, "Hills in the Scottish Highlands at least 500m high and below 600m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f>Fields!L62</f>
+        <v>Tump400To499M</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump400To499M</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (400m to 499m)", "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
+        <f>Fields!L63</f>
+        <v>Tump300To399M</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump300To399M</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (300m to 399m)", "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
+        <f>Fields!L64</f>
+        <v>Tump200To299M</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump200To299M</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (200m to 299m)", "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f>Fields!L65</f>
+        <v>Tump100To199M</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump100To199M</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (100m to 199m)", "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f>Fields!L66</f>
+        <v>Tump0To99M</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Tump0To99M</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (0m to 99m)", "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f>Fields!L67</f>
+        <v>Wainwright</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Wainwright</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Wainwrights", "Wainwright", x =&gt; x.Wainwright, "The 214 hills listed in volumes 1-7 of Wainwright's A Pictorial Guide to the Lakeland Fells."),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f>Fields!L68</f>
+        <v>WainwrightOutlyingFell</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.WainwrightOutlyingFell</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Wainwright Outlying Fells", "Wainwright Outlying Fell", x =&gt; x.WainwrightOutlyingFell, "Hills listed in Wainwright's The Outlying Fells of Lakeland."),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
+        <f>Fields!L69</f>
+        <v>Birkett</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Birkett</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Birketts", "Birkett", x =&gt; x.Birkett, "Lake District hills over 1,000ft."),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f>Fields!L70</f>
+        <v>Synge</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Synge</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Synges", "Synge", x =&gt; x.Synge, "Lake District hills over 1,000ft."),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f>Fields!L71</f>
+        <v>Fellranger</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Fellranger</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Fellrangers", "Fellranger", x =&gt; x.Fellranger, ""),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>Fields!L72</f>
+        <v>CountyTopHistoricPre1974</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopHistoricPre1974</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Historic Pre-1974)", "County Top (Historic Pre-1974)", x =&gt; x.CountyTopHistoricPre1974, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
+        <f>Fields!L73</f>
+        <v>CountyTopHistoricPre1974Twin</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopHistoricPre1974Twin</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops twins (Historic Pre-1974)", "County Top (Historic Pre-1974 twin)", x =&gt; x.CountyTopHistoricPre1974Twin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>Fields!L74</f>
+        <v>CountyTopCurrentCountyorUnitaryAuthority</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Current County or Unitary Authority)", "County Top (Current County or Unitary Authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>Fields!L75</f>
+        <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twims (Current County or Unitary Authority)", "County Top (Current County or Unitary Authority twin)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
+        <f>Fields!L76</f>
+        <v>CountyTopAdministrative1974ToMid1990s</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopAdministrative1974ToMid1990s</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Administrative 1974 to Mid-1990s)", "County Top (Administrative 1974 to Mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990s, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f>Fields!L77</f>
+        <v>CountyTopAdministrative1974ToMid1990sTwin</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twins (Administrative 1974 to Mid-1990s)", "County Top (Administrative 1974 to Mid-1990s twin)", x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f>Fields!L78</f>
+        <v>CountyTopCurrentLondonBorough</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopCurrentLondonBorough</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Current London Borough)", "County Top (Current London Borough)", x =&gt; x.CountyTopCurrentLondonBorough, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f>Fields!L79</f>
+        <v>CountyTopCurrentLondonBoroughTwin</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CountyTopCurrentLondonBoroughTwin</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twins (Current London Borough)", "County Top (Current London Borough twin)", x =&gt; x.CountyTopCurrentLondonBoroughTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f>Fields!L80</f>
+        <v>SignificantIslandofBritain</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SignificantIslandofBritain</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Significant Islands of Britain", "Significant Island of Britain", x =&gt; x.SignificantIslandofBritain, "The Significant Islands of Britain and Ireland are defined to be completely surrounded by water, with either an area of at least 30 hectares within the MHWS contour line or an easily accessed summit prominence of at least 30 metres above MSL, all man-made links and structures being discounted. Sea stacks and other steep sided islands are therefore discounted."),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f>Fields!L81</f>
+        <v>SubMarilyn</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SubMarilyn</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Marilyns", "Sub-Marilyn", x =&gt; x.SubMarilyn, "Hills that fall short of Marilyn status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
+        <f>Fields!L82</f>
+        <v>SubHump</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SubHump</v>
+      </c>
+      <c r="F41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-HuMPs", "Sub-HuMP", x =&gt; x.SubHump, "Hills that fall short of HuMP status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f>Fields!L83</f>
+        <v>SubSimm</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SubSimm</v>
+      </c>
+      <c r="F42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Simms", "Sub-Simm", x =&gt; x.SubSimm, "Hills that fall short of Simm status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f>Fields!L84</f>
+        <v>SubDodd</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SubDodd</v>
+      </c>
+      <c r="F43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Dodds", "Sub-Dodd", x =&gt; x.SubDodd, "Hills that fall short of Dodd status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
+        <f>Fields!L85</f>
+        <v>SubTump400To499M</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.SubTump400To499M</v>
+      </c>
+      <c r="F44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-TuMPs (400m to 499m)", "Sub-TuMP (400m to 499m)", x =&gt; x.SubTump400To499M, "Hills that fall short of TuMP status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
+        <f>Fields!L86</f>
+        <v>Murdo</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Murdo</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Murdos", "Murdo", x =&gt; x.Murdo, "Scottish hills at least 3000 feet in height with a drop of at least 30 metres on all sides. All Murdos are Munros or Munro Tops but some Munro Tops fail to qualify as Murdos."),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
+        <f>Fields!L87</f>
+        <v>CorbettTop</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.CorbettTop</v>
+      </c>
+      <c r="F46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Corbett tops", "Corbett top", x =&gt; x.CorbettTop, "Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops."),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f>Fields!L88</f>
+        <v>GrahamTop</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.GrahamTop</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Graham tops", "Graham top", x =&gt; x.GrahamTop, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
+        <f>Fields!L89</f>
+        <v>BuxtonAndLewis</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.BuxtonAndLewis</v>
+      </c>
+      <c r="F48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Buxton &amp; Lewis", "Buxton &amp; Lewis", x =&gt; x.BuxtonAndLewis, ""),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f>Fields!L90</f>
+        <v>Bridge</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Bridge</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Bridges", "Bridge", x =&gt; x.Bridge, ""),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f>Fields!L91</f>
+        <v>Yeaman</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Yeaman</v>
+      </c>
+      <c r="F50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Yeamans", "Yeaman", x =&gt; x.Yeaman, "Scottish hills with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f>Fields!L92</f>
+        <v>Clem</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Clem</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Clems", "Clem", x =&gt; x.Clem, "Hills in England, Wales and the Isle of Man with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
+        <f>Fields!L93</f>
+        <v>Trail100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Trail100</v>
+      </c>
+      <c r="F52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Trail 100s", "Trail 100", x =&gt; x.Trail100, ""),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
+        <f>Fields!L94</f>
+        <v>DeletedMunroTop</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DeletedMunroTop</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Munro tops", "Deleted Munro top", x =&gt; x.DeletedMunroTop, ""),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
+        <f>Fields!L95</f>
+        <v>DeletedCorbett</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DeletedCorbett</v>
+      </c>
+      <c r="F54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Corbetts", "Deleted Corbett", x =&gt; x.DeletedCorbett, ""),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
+        <f>Fields!L96</f>
+        <v>DeletedGraham</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DeletedGraham</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Grahams", "Deleted Graham", x =&gt; x.DeletedGraham, ""),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f>Fields!L97</f>
+        <v>DeletedNuttall</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DeletedNuttall</v>
+      </c>
+      <c r="F56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Nuttalls", "Deleted Nuttall", x =&gt; x.DeletedNuttall, ""),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
+        <f>Fields!L98</f>
+        <v>DeletedDonaldTop</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.DeletedDonaldTop</v>
+      </c>
+      <c r="F57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Donald tops", "Deleted Donald top", x =&gt; x.DeletedDonaldTop, ""),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f>Fields!L99</f>
+        <v>Dillon</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Dillon</v>
+      </c>
+      <c r="F58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Dillons", "Dillon", x =&gt; x.Dillon, "Hills in Ireland at least 2000 feet high."),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
+        <f>Fields!L100</f>
+        <v>VandeleurLynam</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.VandeleurLynam</v>
+      </c>
+      <c r="F59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Vandeleur-Lynams", "Vandeleur-Lynam", x =&gt; x.VandeleurLynam, "Hills in Ireland at least 600 metres high with a drop of at least 15 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f>Fields!L101</f>
+        <v>Arderin</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Arderin</v>
+      </c>
+      <c r="F60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Arderins", "Arderin", x =&gt; x.Arderin, "Hills in Ireland at least 500 metres high with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
+        <f>Fields!L102</f>
+        <v>Carn</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Carn</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Carns", "Carn", x =&gt; x.Carn, "Hills in Ireland between 400 and 499.9m high with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f>Fields!L103</f>
+        <v>Binnion</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Binnion</v>
+      </c>
+      <c r="F62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Binnions", "Binnion", x =&gt; x.Binnion, "Hills in Ireland with height below 400m and a drop of at least 100m on all sides."),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
+        <f>Fields!L104</f>
+        <v>OtherList</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.OtherList</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Other lists", "Other list", x =&gt; x.OtherList, ""),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
+        <f>Fields!L105</f>
+        <v>Unclassified</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>x =&gt; x.Unclassified</v>
+      </c>
+      <c r="F64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Unclassified", "Unclassified", x =&gt; x.Unclassified, ""),</v>
       </c>
     </row>
   </sheetData>

--- a/data/DobihCodeNames.xlsx
+++ b/data/DobihCodeNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\scotlands-mountains\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DA727-7269-4D79-BB66-A7227B659DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E02CFE-7A82-4F6B-8225-503279F316BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47C25BEF-F419-4614-AF31-B0423522DC6F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="335">
   <si>
     <t>Number</t>
   </si>
@@ -760,9 +760,6 @@
     <t>Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides.</t>
   </si>
   <si>
-    <t>Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 30 metres on all sides.</t>
-  </si>
-  <si>
     <t>Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet.</t>
   </si>
   <si>
@@ -1022,6 +1019,18 @@
   </si>
   <si>
     <t>Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops.</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Subsidiary summits meeting the height criterion of Donalds are designated Donald Tops.</t>
+  </si>
+  <si>
+    <t>Subsidiary summits meeting the height criterion of Grahams are designated Graham Tops.</t>
   </si>
 </sst>
 </file>
@@ -5798,7 +5807,7 @@
         <v>CoU</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" ref="J75:J106" si="21">VLOOKUP(I75,$O$43:$Q$89,3,FALSE)</f>
+        <f t="shared" ref="J75:J105" si="21">VLOOKUP(I75,$O$43:$Q$89,3,FALSE)</f>
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="K75" s="4" t="str">
@@ -7731,21 +7740,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D06681-04E7-442F-B5D9-FAC6AE6C4952}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -7753,664 +7765,844 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" t="s">
         <v>201</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f>Fields!L43</f>
         <v>Marilyn</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>IF(ISBLANK(D2),"false","true")</f>
+        <v>true</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="G2" s="4" t="str">
         <f>"x =&gt; x."&amp;A2</f>
         <v>x =&gt; x.Marilyn</v>
       </c>
-      <c r="F2" s="5" t="str">
-        <f>"new ("""&amp;B2&amp;""", """&amp;C2&amp;""", "&amp;E2&amp;", """&amp;D2&amp;"""),"</f>
-        <v>new ("Marilyns", "Marilyn", x =&gt; x.Marilyn, "British and Irish hills of any height with a drop of at least 150 metres on all sides. The geographical area includes the Isle of Man and the islands of St Kilda."),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="str">
+        <f>"new ("""&amp;B2&amp;""", "&amp;IF(ISBLANK(D2),"null",D2)&amp;", "&amp;E2&amp;", """&amp;C2&amp;""", "&amp;G2&amp;", """&amp;F2&amp;"""),"</f>
+        <v>new ("Marilyns", 12, true, "Marilyn", x =&gt; x.Marilyn, "British and Irish hills of any height with a drop of at least 150 metres on all sides. The geographical area includes the Isle of Man and the islands of St Kilda."),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f>Fields!L44</f>
         <v>MarilynTwin</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E64" si="0">IF(ISBLANK(D3),"false","true")</f>
+        <v>false</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E64" si="0">"x =&gt; x."&amp;A3</f>
+      <c r="G3" s="4" t="str">
+        <f>"x =&gt; x."&amp;A3</f>
         <v>x =&gt; x.MarilynTwin</v>
       </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F64" si="1">"new ("""&amp;B3&amp;""", """&amp;C3&amp;""", "&amp;E3&amp;", """&amp;D3&amp;"""),"</f>
-        <v>new ("Marilyn twins", "Marilyn twin", x =&gt; x.MarilynTwin, "A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland."),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H64" si="1">"new ("""&amp;B3&amp;""", "&amp;IF(ISBLANK(D3),"null",D3)&amp;", "&amp;E3&amp;", """&amp;C3&amp;""", "&amp;G3&amp;", """&amp;F3&amp;"""),"</f>
+        <v>new ("Marilyn twins", null, false, "Marilyn twin", x =&gt; x.MarilynTwin, "A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland."),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f>Fields!L45</f>
         <v>Hump</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G4" s="4" t="str">
+        <f>"x =&gt; x."&amp;A4</f>
         <v>x =&gt; x.Hump</v>
       </c>
-      <c r="F4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("HuMPs", "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence."),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("HuMPs", 13, true, "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence."),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f>Fields!L46</f>
         <v>HumpTwin</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G5" s="4" t="str">
+        <f>"x =&gt; x."&amp;A5</f>
         <v>x =&gt; x.HumpTwin</v>
       </c>
-      <c r="F5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("HuMP twins", "HuMP twin", x =&gt; x.HumpTwin, "A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m."),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("HuMP twins", null, false, "HuMP twin", x =&gt; x.HumpTwin, "A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m."),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f>Fields!L47</f>
         <v>Tump</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G6" s="4" t="str">
+        <f>"x =&gt; x."&amp;A6</f>
         <v>x =&gt; x.Tump</v>
       </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs", "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs", 14, true, "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f>Fields!L48</f>
         <v>Simm</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G7" s="4" t="str">
+        <f>"x =&gt; x."&amp;A7</f>
         <v>x =&gt; x.Simm</v>
       </c>
-      <c r="F7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Simms", "Simm", x =&gt; x.Simm, "British hills at least 600 metres high with a drop of at least 30 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Simms", null, false, "Simm", x =&gt; x.Simm, "British hills at least 600 metres high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f>Fields!L49</f>
         <v>Dodd</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="4" t="str">
+        <f>"x =&gt; x."&amp;A8</f>
         <v>x =&gt; x.Dodd</v>
       </c>
-      <c r="F8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Dodds", "Dodd", x =&gt; x.Dodd, "Hills in Scotland, England, Wales, the Isle of Man and Ireland between 500m and 599.9m high with a drop of at least 30 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Dodds", null, false, "Dodd", x =&gt; x.Dodd, "Hills in Scotland, England, Wales, the Isle of Man and Ireland between 500m and 599.9m high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f>Fields!L50</f>
         <v>Munro</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G9" s="4" t="str">
+        <f>"x =&gt; x."&amp;A9</f>
         <v>x =&gt; x.Munro</v>
       </c>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Munros", "Munro", x =&gt; x.Munro, "Scottish hills at least 3000 feet in height regarded by the SMC as distinct and separate mountains, based on a list originally published in 1891."),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Munros", 1, true, "Munro", x =&gt; x.Munro, "Scottish hills at least 3000 feet in height regarded by the SMC as distinct and separate mountains, based on a list originally published in 1891."),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f>Fields!L51</f>
         <v>MunroTop</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>329</v>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>"x =&gt; x."&amp;A10</f>
         <v>x =&gt; x.MunroTop</v>
       </c>
-      <c r="F10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Munro Tops", "Munro Top", x =&gt; x.MunroTop, "Subsidiary summits meeting the height criterion of Munros are designated Munro Tops."),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Munro Tops", 2, true, "Munro Top", x =&gt; x.MunroTop, "Subsidiary summits meeting the height criterion of Munros are designated Munro Tops."),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f>Fields!L52</f>
         <v>Furth</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G11" s="4" t="str">
+        <f>"x =&gt; x."&amp;A11</f>
         <v>x =&gt; x.Furth</v>
       </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Furths", "Furth", x =&gt; x.Furth, "Summits equivalent to the Munros and Tops in England, Wales and Ireland on the SMC's list are known as Furths."),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Furths", null, false, "Furth", x =&gt; x.Furth, "Summits equivalent to the Munros and Tops in England, Wales and Ireland on the SMC's list are known as Furths."),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f>Fields!L53</f>
         <v>Corbett</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G12" s="4" t="str">
+        <f>"x =&gt; x."&amp;A12</f>
         <v>x =&gt; x.Corbett</v>
       </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Corbetts", "Corbett", x =&gt; x.Corbett, "Scottish hills between 2500 and 2999 feet high with a drop of at least 500 feet (152.4m) on all sides."),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Corbetts", 3, true, "Corbett", x =&gt; x.Corbett, "Scottish hills between 2500 and 2999 feet high with a drop of at least 500 feet (152.4m) on all sides."),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f>Fields!L54</f>
         <v>Graham</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G13" s="4" t="str">
+        <f>"x =&gt; x."&amp;A13</f>
         <v>x =&gt; x.Graham</v>
       </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Grahams", "Graham", x =&gt; x.Graham, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Grahams", 5, true, "Graham", x =&gt; x.Graham, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f>Fields!L55</f>
         <v>Donald</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>245</v>
+      <c r="D14" s="2">
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>"x =&gt; x."&amp;A14</f>
         <v>x =&gt; x.Donald</v>
       </c>
-      <c r="F14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Donalds", "Donald", x =&gt; x.Donald, "Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet."),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donalds", 8, true, "Donald", x =&gt; x.Donald, "Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet."),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f>Fields!L56</f>
         <v>DonaldTop</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>"x =&gt; x."&amp;A15</f>
         <v>x =&gt; x.DonaldTop</v>
       </c>
-      <c r="F15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Donald Tops", "Donald Top", x =&gt; x.DonaldTop, ""),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donald Tops", 9, true, "Donald Top", x =&gt; x.DonaldTop, "Subsidiary summits meeting the height criterion of Donalds are designated Donald Tops."),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f>Fields!L57</f>
         <v>Hewitt</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>"x =&gt; x."&amp;A16</f>
         <v>x =&gt; x.Hewitt</v>
       </c>
-      <c r="F16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Hewitts", "Hewitt", x =&gt; x.Hewitt, "Hills in England, Wales and Ireland at least 2000 feet high with a drop of at least 30 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Hewitts", null, false, "Hewitt", x =&gt; x.Hewitt, "Hills in England, Wales and Ireland at least 2000 feet high with a drop of at least 30 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f>Fields!L58</f>
         <v>Nuttall</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>"x =&gt; x."&amp;A17</f>
         <v>x =&gt; x.Nuttall</v>
       </c>
-      <c r="F17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Nuttalls", "Nuttall", x =&gt; x.Nuttall, "Hills in England and Wales at least 2000 feet high with a drop of at least 15 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Nuttalls", null, false, "Nuttall", x =&gt; x.Nuttall, "Hills in England and Wales at least 2000 feet high with a drop of at least 15 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f>Fields!L59</f>
         <v>Dewey</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>"x =&gt; x."&amp;A18</f>
         <v>x =&gt; x.Dewey</v>
       </c>
-      <c r="F18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deweys", "Dewey", x =&gt; x.Dewey, "Hills in England, Wales and the Isle of Man at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deweys", null, false, "Dewey", x =&gt; x.Dewey, "Hills in England, Wales and the Isle of Man at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f>Fields!L60</f>
         <v>DonaldDewey</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>251</v>
+      <c r="D19" s="2">
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>"x =&gt; x."&amp;A19</f>
         <v>x =&gt; x.DonaldDewey</v>
       </c>
-      <c r="F19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Donald Deweys", "Donald Dewey", x =&gt; x.DonaldDewey, "Hills in the Scottish Lowlands at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Donald Deweys", 10, true, "Donald Dewey", x =&gt; x.DonaldDewey, "Hills in the Scottish Lowlands at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f>Fields!L61</f>
         <v>HighlandFive</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>252</v>
+      <c r="D20" s="2">
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>"x =&gt; x."&amp;A20</f>
         <v>x =&gt; x.HighlandFive</v>
       </c>
-      <c r="F20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Highland Fives", "Highland Five", x =&gt; x.HighlandFive, "Hills in the Scottish Highlands at least 500m high and below 600m with a drop of at least 30m on all sides."),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Highland Fives", 11, true, "Highland Five", x =&gt; x.HighlandFive, "Hills in the Scottish Highlands at least 500m high and below 600m with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f>Fields!L62</f>
         <v>Tump400To499M</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G21" s="4" t="str">
+        <f>"x =&gt; x."&amp;A21</f>
         <v>x =&gt; x.Tump400To499M</v>
       </c>
-      <c r="F21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs (400m to 499m)", "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (400m to 499m)", 15, true, "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f>Fields!L63</f>
         <v>Tump300To399M</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G22" s="4" t="str">
+        <f>"x =&gt; x."&amp;A22</f>
         <v>x =&gt; x.Tump300To399M</v>
       </c>
-      <c r="F22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs (300m to 399m)", "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (300m to 399m)", 16, true, "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f>Fields!L64</f>
         <v>Tump200To299M</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G23" s="4" t="str">
+        <f>"x =&gt; x."&amp;A23</f>
         <v>x =&gt; x.Tump200To299M</v>
       </c>
-      <c r="F23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs (200m to 299m)", "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (200m to 299m)", 17, true, "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f>Fields!L65</f>
         <v>Tump100To199M</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G24" s="4" t="str">
+        <f>"x =&gt; x."&amp;A24</f>
         <v>x =&gt; x.Tump100To199M</v>
       </c>
-      <c r="F24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs (100m to 199m)", "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (100m to 199m)", 18, true, "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f>Fields!L66</f>
         <v>Tump0To99M</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G25" s="4" t="str">
+        <f>"x =&gt; x."&amp;A25</f>
         <v>x =&gt; x.Tump0To99M</v>
       </c>
-      <c r="F25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("TuMPs (0m to 99m)", "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("TuMPs (0m to 99m)", 19, true, "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f>Fields!L67</f>
         <v>Wainwright</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>"x =&gt; x."&amp;A26</f>
         <v>x =&gt; x.Wainwright</v>
       </c>
-      <c r="F26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Wainwrights", "Wainwright", x =&gt; x.Wainwright, "The 214 hills listed in volumes 1-7 of Wainwright's A Pictorial Guide to the Lakeland Fells."),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Wainwrights", null, false, "Wainwright", x =&gt; x.Wainwright, "The 214 hills listed in volumes 1-7 of Wainwright's A Pictorial Guide to the Lakeland Fells."),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f>Fields!L68</f>
         <v>WainwrightOutlyingFell</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>"x =&gt; x."&amp;A27</f>
         <v>x =&gt; x.WainwrightOutlyingFell</v>
       </c>
-      <c r="F27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Wainwright Outlying Fells", "Wainwright Outlying Fell", x =&gt; x.WainwrightOutlyingFell, "Hills listed in Wainwright's The Outlying Fells of Lakeland."),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Wainwright Outlying Fells", null, false, "Wainwright Outlying Fell", x =&gt; x.WainwrightOutlyingFell, "Hills listed in Wainwright's The Outlying Fells of Lakeland."),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f>Fields!L69</f>
         <v>Birkett</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f>"x =&gt; x."&amp;A28</f>
         <v>x =&gt; x.Birkett</v>
       </c>
-      <c r="F28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Birketts", "Birkett", x =&gt; x.Birkett, "Lake District hills over 1,000ft."),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Birketts", null, false, "Birkett", x =&gt; x.Birkett, "Lake District hills over 1,000ft."),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f>Fields!L70</f>
         <v>Synge</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>"x =&gt; x."&amp;A29</f>
         <v>x =&gt; x.Synge</v>
       </c>
-      <c r="F29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Synges", "Synge", x =&gt; x.Synge, "Lake District hills over 1,000ft."),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Synges", null, false, "Synge", x =&gt; x.Synge, "Lake District hills over 1,000ft."),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f>Fields!L71</f>
         <v>Fellranger</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>122</v>
@@ -8418,405 +8610,501 @@
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4" t="str">
+        <f>"x =&gt; x."&amp;A30</f>
         <v>x =&gt; x.Fellranger</v>
       </c>
-      <c r="F30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Fellrangers", "Fellranger", x =&gt; x.Fellranger, ""),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Fellrangers", null, false, "Fellranger", x =&gt; x.Fellranger, ""),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f>Fields!L72</f>
         <v>CountyTopHistoricPre1974</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>"x =&gt; x."&amp;A31</f>
         <v>x =&gt; x.CountyTopHistoricPre1974</v>
       </c>
-      <c r="F31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Historic Pre-1974)", "County Top (Historic Pre-1974)", x =&gt; x.CountyTopHistoricPre1974, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Historic Pre-1974)", null, false, "County Top (Historic Pre-1974)", x =&gt; x.CountyTopHistoricPre1974, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f>Fields!L73</f>
         <v>CountyTopHistoricPre1974Twin</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>"x =&gt; x."&amp;A32</f>
         <v>x =&gt; x.CountyTopHistoricPre1974Twin</v>
       </c>
-      <c r="F32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops twins (Historic Pre-1974)", "County Top (Historic Pre-1974 twin)", x =&gt; x.CountyTopHistoricPre1974Twin, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops twins (Historic Pre-1974)", null, false, "County Top (Historic Pre-1974 twin)", x =&gt; x.CountyTopHistoricPre1974Twin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f>Fields!L74</f>
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>"x =&gt; x."&amp;A33</f>
         <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
-      <c r="F33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Current County or Unitary Authority)", "County Top (Current County or Unitary Authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Current County or Unitary Authority)", null, false, "County Top (Current County or Unitary Authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f>Fields!L75</f>
         <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>"x =&gt; x."&amp;A34</f>
         <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
-      <c r="F34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twims (Current County or Unitary Authority)", "County Top (Current County or Unitary Authority twin)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twims (Current County or Unitary Authority)", null, false, "County Top (Current County or Unitary Authority twin)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f>Fields!L76</f>
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>"x =&gt; x."&amp;A35</f>
         <v>x =&gt; x.CountyTopAdministrative1974ToMid1990s</v>
       </c>
-      <c r="F35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Administrative 1974 to Mid-1990s)", "County Top (Administrative 1974 to Mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990s, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Administrative 1974 to Mid-1990s)", null, false, "County Top (Administrative 1974 to Mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990s, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f>Fields!L77</f>
         <v>CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>"x =&gt; x."&amp;A36</f>
         <v>x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
-      <c r="F36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twins (Administrative 1974 to Mid-1990s)", "County Top (Administrative 1974 to Mid-1990s twin)", x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twins (Administrative 1974 to Mid-1990s)", null, false, "County Top (Administrative 1974 to Mid-1990s twin)", x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f>Fields!L78</f>
         <v>CountyTopCurrentLondonBorough</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f>"x =&gt; x."&amp;A37</f>
         <v>x =&gt; x.CountyTopCurrentLondonBorough</v>
       </c>
-      <c r="F37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Current London Borough)", "County Top (Current London Borough)", x =&gt; x.CountyTopCurrentLondonBorough, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Tops (Current London Borough)", null, false, "County Top (Current London Borough)", x =&gt; x.CountyTopCurrentLondonBorough, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f>Fields!L79</f>
         <v>CountyTopCurrentLondonBoroughTwin</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f>"x =&gt; x."&amp;A38</f>
         <v>x =&gt; x.CountyTopCurrentLondonBoroughTwin</v>
       </c>
-      <c r="F38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twins (Current London Borough)", "County Top (Current London Borough twin)", x =&gt; x.CountyTopCurrentLondonBoroughTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("County Top twins (Current London Borough)", null, false, "County Top (Current London Borough twin)", x =&gt; x.CountyTopCurrentLondonBoroughTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f>Fields!L80</f>
         <v>SignificantIslandofBritain</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f>"x =&gt; x."&amp;A39</f>
         <v>x =&gt; x.SignificantIslandofBritain</v>
       </c>
-      <c r="F39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Significant Islands of Britain", "Significant Island of Britain", x =&gt; x.SignificantIslandofBritain, "The Significant Islands of Britain and Ireland are defined to be completely surrounded by water, with either an area of at least 30 hectares within the MHWS contour line or an easily accessed summit prominence of at least 30 metres above MSL, all man-made links and structures being discounted. Sea stacks and other steep sided islands are therefore discounted."),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Significant Islands of Britain", null, false, "Significant Island of Britain", x =&gt; x.SignificantIslandofBritain, "The Significant Islands of Britain and Ireland are defined to be completely surrounded by water, with either an area of at least 30 hectares within the MHWS contour line or an easily accessed summit prominence of at least 30 metres above MSL, all man-made links and structures being discounted. Sea stacks and other steep sided islands are therefore discounted."),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f>Fields!L81</f>
         <v>SubMarilyn</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f>"x =&gt; x."&amp;A40</f>
         <v>x =&gt; x.SubMarilyn</v>
       </c>
-      <c r="F40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Sub-Marilyns", "Sub-Marilyn", x =&gt; x.SubMarilyn, "Hills that fall short of Marilyn status on drop by 10m or less."),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Marilyns", null, false, "Sub-Marilyn", x =&gt; x.SubMarilyn, "Hills that fall short of Marilyn status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f>Fields!L82</f>
         <v>SubHump</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f>"x =&gt; x."&amp;A41</f>
         <v>x =&gt; x.SubHump</v>
       </c>
-      <c r="F41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Sub-HuMPs", "Sub-HuMP", x =&gt; x.SubHump, "Hills that fall short of HuMP status on drop by 10m or less."),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-HuMPs", null, false, "Sub-HuMP", x =&gt; x.SubHump, "Hills that fall short of HuMP status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f>Fields!L83</f>
         <v>SubSimm</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f>"x =&gt; x."&amp;A42</f>
         <v>x =&gt; x.SubSimm</v>
       </c>
-      <c r="F42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Sub-Simms", "Sub-Simm", x =&gt; x.SubSimm, "Hills that fall short of Simm status on drop by 10m or less."),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Simms", null, false, "Sub-Simm", x =&gt; x.SubSimm, "Hills that fall short of Simm status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f>Fields!L84</f>
         <v>SubDodd</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f>"x =&gt; x."&amp;A43</f>
         <v>x =&gt; x.SubDodd</v>
       </c>
-      <c r="F43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Sub-Dodds", "Sub-Dodd", x =&gt; x.SubDodd, "Hills that fall short of Dodd status on drop by 10m or less."),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-Dodds", null, false, "Sub-Dodd", x =&gt; x.SubDodd, "Hills that fall short of Dodd status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f>Fields!L85</f>
         <v>SubTump400To499M</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f>"x =&gt; x."&amp;A44</f>
         <v>x =&gt; x.SubTump400To499M</v>
       </c>
-      <c r="F44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Sub-TuMPs (400m to 499m)", "Sub-TuMP (400m to 499m)", x =&gt; x.SubTump400To499M, "Hills that fall short of TuMP status on drop by 10m or less."),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Sub-TuMPs (400m to 499m)", null, false, "Sub-TuMP (400m to 499m)", x =&gt; x.SubTump400To499M, "Hills that fall short of TuMP status on drop by 10m or less."),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f>Fields!L86</f>
         <v>Murdo</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G45" s="4" t="str">
+        <f>"x =&gt; x."&amp;A45</f>
         <v>x =&gt; x.Murdo</v>
       </c>
-      <c r="F45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Murdos", "Murdo", x =&gt; x.Murdo, "Scottish hills at least 3000 feet in height with a drop of at least 30 metres on all sides. All Murdos are Munros or Munro Tops but some Munro Tops fail to qualify as Murdos."),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Murdos", 7, true, "Murdo", x =&gt; x.Murdo, "Scottish hills at least 3000 feet in height with a drop of at least 30 metres on all sides. All Murdos are Munros or Munro Tops but some Munro Tops fail to qualify as Murdos."),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f>Fields!L87</f>
         <v>CorbettTop</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>331</v>
+      <c r="D46" s="2">
+        <v>4</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>"x =&gt; x."&amp;A46</f>
         <v>x =&gt; x.CorbettTop</v>
       </c>
-      <c r="F46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Corbett tops", "Corbett top", x =&gt; x.CorbettTop, "Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops."),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Corbett tops", 4, true, "Corbett top", x =&gt; x.CorbettTop, "Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops."),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f>Fields!L88</f>
         <v>GrahamTop</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>244</v>
+      <c r="D47" s="2">
+        <v>6</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>true</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f>"x =&gt; x."&amp;A47</f>
         <v>x =&gt; x.GrahamTop</v>
       </c>
-      <c r="F47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Graham tops", "Graham top", x =&gt; x.GrahamTop, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 30 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Graham tops", 6, true, "Graham top", x =&gt; x.GrahamTop, "Subsidiary summits meeting the height criterion of Grahams are designated Graham Tops."),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f>Fields!L89</f>
         <v>BuxtonAndLewis</v>
@@ -8830,20 +9118,25 @@
       <c r="D48" s="2"/>
       <c r="E48" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="4" t="str">
+        <f>"x =&gt; x."&amp;A48</f>
         <v>x =&gt; x.BuxtonAndLewis</v>
       </c>
-      <c r="F48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Buxton &amp; Lewis", "Buxton &amp; Lewis", x =&gt; x.BuxtonAndLewis, ""),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Buxton &amp; Lewis", null, false, "Buxton &amp; Lewis", x =&gt; x.BuxtonAndLewis, ""),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f>Fields!L90</f>
         <v>Bridge</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>139</v>
@@ -8851,66 +9144,81 @@
       <c r="D49" s="2"/>
       <c r="E49" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="4" t="str">
+        <f>"x =&gt; x."&amp;A49</f>
         <v>x =&gt; x.Bridge</v>
       </c>
-      <c r="F49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Bridges", "Bridge", x =&gt; x.Bridge, ""),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Bridges", null, false, "Bridge", x =&gt; x.Bridge, ""),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f>Fields!L91</f>
         <v>Yeaman</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f>"x =&gt; x."&amp;A50</f>
         <v>x =&gt; x.Yeaman</v>
       </c>
-      <c r="F50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Yeamans", "Yeaman", x =&gt; x.Yeaman, "Scottish hills with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Yeamans", null, false, "Yeaman", x =&gt; x.Yeaman, "Scottish hills with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f>Fields!L92</f>
         <v>Clem</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f>"x =&gt; x."&amp;A51</f>
         <v>x =&gt; x.Clem</v>
       </c>
-      <c r="F51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Clems", "Clem", x =&gt; x.Clem, "Hills in England, Wales and the Isle of Man with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Clems", null, false, "Clem", x =&gt; x.Clem, "Hills in England, Wales and the Isle of Man with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f>Fields!L93</f>
         <v>Trail100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
@@ -8918,20 +9226,25 @@
       <c r="D52" s="2"/>
       <c r="E52" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="4" t="str">
+        <f>"x =&gt; x."&amp;A52</f>
         <v>x =&gt; x.Trail100</v>
       </c>
-      <c r="F52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Trail 100s", "Trail 100", x =&gt; x.Trail100, ""),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Trail 100s", null, false, "Trail 100", x =&gt; x.Trail100, ""),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f>Fields!L94</f>
         <v>DeletedMunroTop</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>227</v>
@@ -8939,20 +9252,25 @@
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4" t="str">
+        <f>"x =&gt; x."&amp;A53</f>
         <v>x =&gt; x.DeletedMunroTop</v>
       </c>
-      <c r="F53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Munro tops", "Deleted Munro top", x =&gt; x.DeletedMunroTop, ""),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Munro tops", null, false, "Deleted Munro top", x =&gt; x.DeletedMunroTop, ""),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f>Fields!L95</f>
         <v>DeletedCorbett</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>228</v>
@@ -8960,20 +9278,25 @@
       <c r="D54" s="2"/>
       <c r="E54" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="4" t="str">
+        <f>"x =&gt; x."&amp;A54</f>
         <v>x =&gt; x.DeletedCorbett</v>
       </c>
-      <c r="F54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Corbetts", "Deleted Corbett", x =&gt; x.DeletedCorbett, ""),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Corbetts", null, false, "Deleted Corbett", x =&gt; x.DeletedCorbett, ""),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f>Fields!L96</f>
         <v>DeletedGraham</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>229</v>
@@ -8981,20 +9304,25 @@
       <c r="D55" s="2"/>
       <c r="E55" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4" t="str">
+        <f>"x =&gt; x."&amp;A55</f>
         <v>x =&gt; x.DeletedGraham</v>
       </c>
-      <c r="F55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Grahams", "Deleted Graham", x =&gt; x.DeletedGraham, ""),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Grahams", null, false, "Deleted Graham", x =&gt; x.DeletedGraham, ""),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f>Fields!L97</f>
         <v>DeletedNuttall</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>230</v>
@@ -9002,20 +9330,25 @@
       <c r="D56" s="2"/>
       <c r="E56" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="4" t="str">
+        <f>"x =&gt; x."&amp;A56</f>
         <v>x =&gt; x.DeletedNuttall</v>
       </c>
-      <c r="F56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Nuttalls", "Deleted Nuttall", x =&gt; x.DeletedNuttall, ""),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Nuttalls", null, false, "Deleted Nuttall", x =&gt; x.DeletedNuttall, ""),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f>Fields!L98</f>
         <v>DeletedDonaldTop</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>231</v>
@@ -9023,135 +9356,165 @@
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="4" t="str">
+        <f>"x =&gt; x."&amp;A57</f>
         <v>x =&gt; x.DeletedDonaldTop</v>
       </c>
-      <c r="F57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Donald tops", "Deleted Donald top", x =&gt; x.DeletedDonaldTop, ""),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Deleted Donald tops", null, false, "Deleted Donald top", x =&gt; x.DeletedDonaldTop, ""),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f>Fields!L99</f>
         <v>Dillon</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f>"x =&gt; x."&amp;A58</f>
         <v>x =&gt; x.Dillon</v>
       </c>
-      <c r="F58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Dillons", "Dillon", x =&gt; x.Dillon, "Hills in Ireland at least 2000 feet high."),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Dillons", null, false, "Dillon", x =&gt; x.Dillon, "Hills in Ireland at least 2000 feet high."),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f>Fields!L100</f>
         <v>VandeleurLynam</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f>"x =&gt; x."&amp;A59</f>
         <v>x =&gt; x.VandeleurLynam</v>
       </c>
-      <c r="F59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Vandeleur-Lynams", "Vandeleur-Lynam", x =&gt; x.VandeleurLynam, "Hills in Ireland at least 600 metres high with a drop of at least 15 metres on all sides."),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Vandeleur-Lynams", null, false, "Vandeleur-Lynam", x =&gt; x.VandeleurLynam, "Hills in Ireland at least 600 metres high with a drop of at least 15 metres on all sides."),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f>Fields!L101</f>
         <v>Arderin</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f>"x =&gt; x."&amp;A60</f>
         <v>x =&gt; x.Arderin</v>
       </c>
-      <c r="F60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Arderins", "Arderin", x =&gt; x.Arderin, "Hills in Ireland at least 500 metres high with a drop of at least 30m on all sides."),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Arderins", null, false, "Arderin", x =&gt; x.Arderin, "Hills in Ireland at least 500 metres high with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f>Fields!L102</f>
         <v>Carn</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f>"x =&gt; x."&amp;A61</f>
         <v>x =&gt; x.Carn</v>
       </c>
-      <c r="F61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Carns", "Carn", x =&gt; x.Carn, "Hills in Ireland between 400 and 499.9m high with a drop of at least 30m on all sides."),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Carns", null, false, "Carn", x =&gt; x.Carn, "Hills in Ireland between 400 and 499.9m high with a drop of at least 30m on all sides."),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f>Fields!L103</f>
         <v>Binnion</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f>"x =&gt; x."&amp;A62</f>
         <v>x =&gt; x.Binnion</v>
       </c>
-      <c r="F62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Binnions", "Binnion", x =&gt; x.Binnion, "Hills in Ireland with height below 400m and a drop of at least 100m on all sides."),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Binnions", null, false, "Binnion", x =&gt; x.Binnion, "Hills in Ireland with height below 400m and a drop of at least 100m on all sides."),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f>Fields!L104</f>
         <v>OtherList</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>131</v>
@@ -9159,14 +9522,19 @@
       <c r="D63" s="2"/>
       <c r="E63" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="4" t="str">
+        <f>"x =&gt; x."&amp;A63</f>
         <v>x =&gt; x.OtherList</v>
       </c>
-      <c r="F63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Other lists", "Other list", x =&gt; x.OtherList, ""),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Other lists", null, false, "Other list", x =&gt; x.OtherList, ""),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f>Fields!L105</f>
         <v>Unclassified</v>
@@ -9180,11 +9548,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>false</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="4" t="str">
+        <f>"x =&gt; x."&amp;A64</f>
         <v>x =&gt; x.Unclassified</v>
       </c>
-      <c r="F64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Unclassified", "Unclassified", x =&gt; x.Unclassified, ""),</v>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>new ("Unclassified", null, false, "Unclassified", x =&gt; x.Unclassified, ""),</v>
       </c>
     </row>
   </sheetData>

--- a/data/DobihCodeNames.xlsx
+++ b/data/DobihCodeNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\scotlands-mountains\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E02CFE-7A82-4F6B-8225-503279F316BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F2304-140C-4067-B347-02212B098C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47C25BEF-F419-4614-AF31-B0423522DC6F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="333">
   <si>
     <t>Number</t>
   </si>
@@ -655,39 +655,9 @@
     <t>TuMP (0m to 99m)</t>
   </si>
   <si>
-    <t>County Top (Historic Pre-1974)</t>
-  </si>
-  <si>
-    <t>County Top (Historic Pre-1974 twin)</t>
-  </si>
-  <si>
-    <t>Marilyn twin</t>
-  </si>
-  <si>
     <t>HuMP</t>
   </si>
   <si>
-    <t>HuMP twin</t>
-  </si>
-  <si>
-    <t>County Top (Current County or Unitary Authority)</t>
-  </si>
-  <si>
-    <t>County Top (Current County or Unitary Authority twin)</t>
-  </si>
-  <si>
-    <t>County Top (Administrative 1974 to Mid-1990s)</t>
-  </si>
-  <si>
-    <t>County Top (Administrative 1974 to Mid-1990s twin)</t>
-  </si>
-  <si>
-    <t>County Top (Current London Borough)</t>
-  </si>
-  <si>
-    <t>County Top (Current London Borough twin)</t>
-  </si>
-  <si>
     <t>Sub-Marilyn</t>
   </si>
   <si>
@@ -703,15 +673,6 @@
     <t>Sub-TuMP (400m to 499m)</t>
   </si>
   <si>
-    <t>Corbett top</t>
-  </si>
-  <si>
-    <t>Graham top</t>
-  </si>
-  <si>
-    <t>Deleted Munro top</t>
-  </si>
-  <si>
     <t>Deleted Corbett</t>
   </si>
   <si>
@@ -721,9 +682,6 @@
     <t>Deleted Nuttall</t>
   </si>
   <si>
-    <t>Deleted Donald top</t>
-  </si>
-  <si>
     <t>British and Irish hills of any height with a drop of at least 150 metres on all sides. The geographical area includes the Isle of Man and the islands of St Kilda.</t>
   </si>
   <si>
@@ -832,15 +790,9 @@
     <t>Marilyns</t>
   </si>
   <si>
-    <t>Marilyn twins</t>
-  </si>
-  <si>
     <t>HuMPs</t>
   </si>
   <si>
-    <t>HuMP twins</t>
-  </si>
-  <si>
     <t>TuMPs</t>
   </si>
   <si>
@@ -916,12 +868,6 @@
     <t>Murdos</t>
   </si>
   <si>
-    <t>Corbett tops</t>
-  </si>
-  <si>
-    <t>Graham tops</t>
-  </si>
-  <si>
     <t>Bridges</t>
   </si>
   <si>
@@ -934,9 +880,6 @@
     <t>Trail 100s</t>
   </si>
   <si>
-    <t>Deleted Munro tops</t>
-  </si>
-  <si>
     <t>Deleted Corbetts</t>
   </si>
   <si>
@@ -946,9 +889,6 @@
     <t>Deleted Nuttalls</t>
   </si>
   <si>
-    <t>Deleted Donald tops</t>
-  </si>
-  <si>
     <t>Dillons</t>
   </si>
   <si>
@@ -982,30 +922,6 @@
     <t>TuMPs (0m to 99m)</t>
   </si>
   <si>
-    <t>County Tops (Historic Pre-1974)</t>
-  </si>
-  <si>
-    <t>County Tops (Current County or Unitary Authority)</t>
-  </si>
-  <si>
-    <t>County Top twims (Current County or Unitary Authority)</t>
-  </si>
-  <si>
-    <t>County Tops twins (Historic Pre-1974)</t>
-  </si>
-  <si>
-    <t>County Tops (Administrative 1974 to Mid-1990s)</t>
-  </si>
-  <si>
-    <t>County Top twins (Administrative 1974 to Mid-1990s)</t>
-  </si>
-  <si>
-    <t>County Tops (Current London Borough)</t>
-  </si>
-  <si>
-    <t>County Top twins (Current London Borough)</t>
-  </si>
-  <si>
     <t>Significant Islands of Britain</t>
   </si>
   <si>
@@ -1031,6 +947,84 @@
   </si>
   <si>
     <t>Subsidiary summits meeting the height criterion of Grahams are designated Graham Tops.</t>
+  </si>
+  <si>
+    <t>Corbett Tops</t>
+  </si>
+  <si>
+    <t>Graham Tops</t>
+  </si>
+  <si>
+    <t>Deleted Munro Tops</t>
+  </si>
+  <si>
+    <t>Deleted Munro Top</t>
+  </si>
+  <si>
+    <t>Deleted Donald Top</t>
+  </si>
+  <si>
+    <t>Deleted Donald Tops</t>
+  </si>
+  <si>
+    <t>County Tops (current county or unitary authority)</t>
+  </si>
+  <si>
+    <t>County Tops (administrative 1974 to mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Top Twins (administrative 1974 to mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Tops (current London borough)</t>
+  </si>
+  <si>
+    <t>County Top Twins (current London borough)</t>
+  </si>
+  <si>
+    <t>County Tops (historic pre-1974)</t>
+  </si>
+  <si>
+    <t>County Tops Twins (historic pre-1974)</t>
+  </si>
+  <si>
+    <t>County Top (historic pre-1974)</t>
+  </si>
+  <si>
+    <t>County Top Twin (historic pre-1974)</t>
+  </si>
+  <si>
+    <t>County Top (current county or unitary authority)</t>
+  </si>
+  <si>
+    <t>County Top Twin (current county or unitary authority)</t>
+  </si>
+  <si>
+    <t>County Top (administrative 1974 to mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Top Twin (administrative 1974 to mid-1990s)</t>
+  </si>
+  <si>
+    <t>County Top (current London borough)</t>
+  </si>
+  <si>
+    <t>County Top Twin (current London borough)</t>
+  </si>
+  <si>
+    <t>Marilyn Twin</t>
+  </si>
+  <si>
+    <t>HuMP Twin</t>
+  </si>
+  <si>
+    <t>Marilyn Twins</t>
+  </si>
+  <si>
+    <t>HuMP Twins</t>
+  </si>
+  <si>
+    <t>County Top Twins (current county or unitary authority)</t>
   </si>
 </sst>
 </file>
@@ -7742,9 +7736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D06681-04E7-442F-B5D9-FAC6AE6C4952}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7765,13 +7757,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>201</v>
@@ -7786,7 +7778,7 @@
         <v>Marilyn</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>97</v>
@@ -7799,10 +7791,10 @@
         <v>true</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>"x =&gt; x."&amp;A2</f>
+        <f t="shared" ref="G2:G33" si="0">"x =&gt; x."&amp;A2</f>
         <v>x =&gt; x.Marilyn</v>
       </c>
       <c r="H2" s="5" t="str">
@@ -7816,26 +7808,26 @@
         <v>MarilynTwin</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E64" si="0">IF(ISBLANK(D3),"false","true")</f>
+        <f t="shared" ref="E3:E64" si="1">IF(ISBLANK(D3),"false","true")</f>
         <v>false</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f>"x =&gt; x."&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>x =&gt; x.MarilynTwin</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H64" si="1">"new ("""&amp;B3&amp;""", "&amp;IF(ISBLANK(D3),"null",D3)&amp;", "&amp;E3&amp;", """&amp;C3&amp;""", "&amp;G3&amp;", """&amp;F3&amp;"""),"</f>
-        <v>new ("Marilyn twins", null, false, "Marilyn twin", x =&gt; x.MarilynTwin, "A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland."),</v>
+        <f t="shared" ref="H3:H64" si="2">"new ("""&amp;B3&amp;""", "&amp;IF(ISBLANK(D3),"null",D3)&amp;", "&amp;E3&amp;", """&amp;C3&amp;""", "&amp;G3&amp;", """&amp;F3&amp;"""),"</f>
+        <v>new ("Marilyn Twins", null, false, "Marilyn Twin", x =&gt; x.MarilynTwin, "A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland."),</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7844,27 +7836,27 @@
         <v>Hump</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>"x =&gt; x."&amp;A4</f>
         <v>x =&gt; x.Hump</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("HuMPs", 13, true, "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence."),</v>
       </c>
     </row>
@@ -7874,26 +7866,26 @@
         <v>HumpTwin</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>"x =&gt; x."&amp;A5</f>
         <v>x =&gt; x.HumpTwin</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("HuMP twins", null, false, "HuMP twin", x =&gt; x.HumpTwin, "A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("HuMP Twins", null, false, "HuMP Twin", x =&gt; x.HumpTwin, "A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m."),</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7902,7 +7894,7 @@
         <v>Tump</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>203</v>
@@ -7911,18 +7903,18 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>"x =&gt; x."&amp;A6</f>
         <v>x =&gt; x.Tump</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs", 14, true, "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -7932,25 +7924,25 @@
         <v>Simm</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>"x =&gt; x."&amp;A7</f>
         <v>x =&gt; x.Simm</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Simms", null, false, "Simm", x =&gt; x.Simm, "British hills at least 600 metres high with a drop of at least 30 metres on all sides."),</v>
       </c>
     </row>
@@ -7960,25 +7952,25 @@
         <v>Dodd</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>"x =&gt; x."&amp;A8</f>
         <v>x =&gt; x.Dodd</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Dodds", null, false, "Dodd", x =&gt; x.Dodd, "Hills in Scotland, England, Wales, the Isle of Man and Ireland between 500m and 599.9m high with a drop of at least 30 metres on all sides."),</v>
       </c>
     </row>
@@ -7988,7 +7980,7 @@
         <v>Munro</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -7997,18 +7989,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f>"x =&gt; x."&amp;A9</f>
         <v>x =&gt; x.Munro</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Munros", 1, true, "Munro", x =&gt; x.Munro, "Scottish hills at least 3000 feet in height regarded by the SMC as distinct and separate mountains, based on a list originally published in 1891."),</v>
       </c>
     </row>
@@ -8018,7 +8010,7 @@
         <v>MunroTop</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>102</v>
@@ -8027,18 +8019,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f>"x =&gt; x."&amp;A10</f>
         <v>x =&gt; x.MunroTop</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Munro Tops", 2, true, "Munro Top", x =&gt; x.MunroTop, "Subsidiary summits meeting the height criterion of Munros are designated Munro Tops."),</v>
       </c>
     </row>
@@ -8048,25 +8040,25 @@
         <v>Furth</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f>"x =&gt; x."&amp;A11</f>
         <v>x =&gt; x.Furth</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Furths", null, false, "Furth", x =&gt; x.Furth, "Summits equivalent to the Munros and Tops in England, Wales and Ireland on the SMC's list are known as Furths."),</v>
       </c>
     </row>
@@ -8076,7 +8068,7 @@
         <v>Corbett</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>104</v>
@@ -8085,18 +8077,18 @@
         <v>3</v>
       </c>
       <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f>"x =&gt; x."&amp;A12</f>
         <v>x =&gt; x.Corbett</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Corbetts", 3, true, "Corbett", x =&gt; x.Corbett, "Scottish hills between 2500 and 2999 feet high with a drop of at least 500 feet (152.4m) on all sides."),</v>
       </c>
     </row>
@@ -8106,7 +8098,7 @@
         <v>Graham</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>105</v>
@@ -8115,18 +8107,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f>"x =&gt; x."&amp;A13</f>
         <v>x =&gt; x.Graham</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Grahams", 5, true, "Graham", x =&gt; x.Graham, "Scottish hills at least 600m high and below 762m (2500 feet) with a drop of at least 150 metres on all sides."),</v>
       </c>
     </row>
@@ -8136,7 +8128,7 @@
         <v>Donald</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>106</v>
@@ -8145,18 +8137,18 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>"x =&gt; x."&amp;A14</f>
         <v>x =&gt; x.Donald</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Donalds", 8, true, "Donald", x =&gt; x.Donald, "Hills in the Scottish Lowlands at least 2000 feet high. 'Tops' are all elevations with a drop of at least 100 feet (30.48m) on all sides and elevations of sufficient topographical merit with a drop of between 50 and 100 feet."),</v>
       </c>
     </row>
@@ -8166,7 +8158,7 @@
         <v>DonaldTop</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>107</v>
@@ -8175,18 +8167,18 @@
         <v>9</v>
       </c>
       <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f>"x =&gt; x."&amp;A15</f>
         <v>x =&gt; x.DonaldTop</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Donald Tops", 9, true, "Donald Top", x =&gt; x.DonaldTop, "Subsidiary summits meeting the height criterion of Donalds are designated Donald Tops."),</v>
       </c>
     </row>
@@ -8196,25 +8188,25 @@
         <v>Hewitt</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>"x =&gt; x."&amp;A16</f>
         <v>x =&gt; x.Hewitt</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Hewitts", null, false, "Hewitt", x =&gt; x.Hewitt, "Hills in England, Wales and Ireland at least 2000 feet high with a drop of at least 30 metres on all sides."),</v>
       </c>
     </row>
@@ -8224,25 +8216,25 @@
         <v>Nuttall</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>"x =&gt; x."&amp;A17</f>
         <v>x =&gt; x.Nuttall</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Nuttalls", null, false, "Nuttall", x =&gt; x.Nuttall, "Hills in England and Wales at least 2000 feet high with a drop of at least 15 metres on all sides."),</v>
       </c>
     </row>
@@ -8252,25 +8244,25 @@
         <v>Dewey</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f>"x =&gt; x."&amp;A18</f>
         <v>x =&gt; x.Dewey</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Deweys", null, false, "Dewey", x =&gt; x.Dewey, "Hills in England, Wales and the Isle of Man at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
       </c>
     </row>
@@ -8280,7 +8272,7 @@
         <v>DonaldDewey</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>111</v>
@@ -8289,18 +8281,18 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f>"x =&gt; x."&amp;A19</f>
         <v>x =&gt; x.DonaldDewey</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Donald Deweys", 10, true, "Donald Dewey", x =&gt; x.DonaldDewey, "Hills in the Scottish Lowlands at least 500m high and below 609.6m with a drop of at least 30m on all sides."),</v>
       </c>
     </row>
@@ -8310,7 +8302,7 @@
         <v>HighlandFive</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
@@ -8319,18 +8311,18 @@
         <v>11</v>
       </c>
       <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f>"x =&gt; x."&amp;A20</f>
         <v>x =&gt; x.HighlandFive</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Highland Fives", 11, true, "Highland Five", x =&gt; x.HighlandFive, "Hills in the Scottish Highlands at least 500m high and below 600m with a drop of at least 30m on all sides."),</v>
       </c>
     </row>
@@ -8340,7 +8332,7 @@
         <v>Tump400To499M</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>204</v>
@@ -8349,18 +8341,18 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f>"x =&gt; x."&amp;A21</f>
         <v>x =&gt; x.Tump400To499M</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs (400m to 499m)", 15, true, "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -8370,7 +8362,7 @@
         <v>Tump300To399M</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>205</v>
@@ -8379,18 +8371,18 @@
         <v>16</v>
       </c>
       <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f>"x =&gt; x."&amp;A22</f>
         <v>x =&gt; x.Tump300To399M</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs (300m to 399m)", 16, true, "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -8400,7 +8392,7 @@
         <v>Tump200To299M</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>206</v>
@@ -8409,18 +8401,18 @@
         <v>17</v>
       </c>
       <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f>"x =&gt; x."&amp;A23</f>
         <v>x =&gt; x.Tump200To299M</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs (200m to 299m)", 17, true, "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -8430,7 +8422,7 @@
         <v>Tump100To199M</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>207</v>
@@ -8439,18 +8431,18 @@
         <v>18</v>
       </c>
       <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f>"x =&gt; x."&amp;A24</f>
         <v>x =&gt; x.Tump100To199M</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs (100m to 199m)", 18, true, "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -8460,7 +8452,7 @@
         <v>Tump0To99M</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>208</v>
@@ -8469,18 +8461,18 @@
         <v>19</v>
       </c>
       <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>true</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>true</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f>"x =&gt; x."&amp;A25</f>
         <v>x =&gt; x.Tump0To99M</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("TuMPs (0m to 99m)", 19, true, "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
@@ -8490,25 +8482,25 @@
         <v>Wainwright</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f>"x =&gt; x."&amp;A26</f>
         <v>x =&gt; x.Wainwright</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Wainwrights", null, false, "Wainwright", x =&gt; x.Wainwright, "The 214 hills listed in volumes 1-7 of Wainwright's A Pictorial Guide to the Lakeland Fells."),</v>
       </c>
     </row>
@@ -8518,25 +8510,25 @@
         <v>WainwrightOutlyingFell</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f>"x =&gt; x."&amp;A27</f>
         <v>x =&gt; x.WainwrightOutlyingFell</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Wainwright Outlying Fells", null, false, "Wainwright Outlying Fell", x =&gt; x.WainwrightOutlyingFell, "Hills listed in Wainwright's The Outlying Fells of Lakeland."),</v>
       </c>
     </row>
@@ -8546,25 +8538,25 @@
         <v>Birkett</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <f>"x =&gt; x."&amp;A28</f>
         <v>x =&gt; x.Birkett</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Birketts", null, false, "Birkett", x =&gt; x.Birkett, "Lake District hills over 1,000ft."),</v>
       </c>
     </row>
@@ -8574,25 +8566,25 @@
         <v>Synge</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f>"x =&gt; x."&amp;A29</f>
         <v>x =&gt; x.Synge</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Synges", null, false, "Synge", x =&gt; x.Synge, "Lake District hills over 1,000ft."),</v>
       </c>
     </row>
@@ -8602,23 +8594,23 @@
         <v>Fellranger</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="str">
-        <f>"x =&gt; x."&amp;A30</f>
+        <f t="shared" si="0"/>
         <v>x =&gt; x.Fellranger</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Fellrangers", null, false, "Fellranger", x =&gt; x.Fellranger, ""),</v>
       </c>
     </row>
@@ -8631,23 +8623,23 @@
         <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f>"x =&gt; x."&amp;A31</f>
         <v>x =&gt; x.CountyTopHistoricPre1974</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Historic Pre-1974)", null, false, "County Top (Historic Pre-1974)", x =&gt; x.CountyTopHistoricPre1974, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Tops (historic pre-1974)", null, false, "County Top (historic pre-1974)", x =&gt; x.CountyTopHistoricPre1974, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8656,26 +8648,26 @@
         <v>CountyTopHistoricPre1974Twin</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f>"x =&gt; x."&amp;A32</f>
         <v>x =&gt; x.CountyTopHistoricPre1974Twin</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops twins (Historic Pre-1974)", null, false, "County Top (Historic Pre-1974 twin)", x =&gt; x.CountyTopHistoricPre1974Twin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Tops Twins (historic pre-1974)", null, false, "County Top Twin (historic pre-1974)", x =&gt; x.CountyTopHistoricPre1974Twin, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8684,26 +8676,26 @@
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>false</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f>"x =&gt; x."&amp;A33</f>
         <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Current County or Unitary Authority)", null, false, "County Top (Current County or Unitary Authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Tops (current county or unitary authority)", null, false, "County Top (current county or unitary authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthority, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8712,26 +8704,26 @@
         <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G34" s="4" t="str">
-        <f>"x =&gt; x."&amp;A34</f>
+        <f t="shared" ref="G34:G64" si="3">"x =&gt; x."&amp;A34</f>
         <v>x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twims (Current County or Unitary Authority)", null, false, "County Top (Current County or Unitary Authority twin)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Top Twins (current county or unitary authority)", null, false, "County Top Twin (current county or unitary authority)", x =&gt; x.CountyTopCurrentCountyorUnitaryAuthorityTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8740,26 +8732,26 @@
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G35" s="4" t="str">
-        <f>"x =&gt; x."&amp;A35</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Administrative 1974 to Mid-1990s)", null, false, "County Top (Administrative 1974 to Mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990s, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Tops (administrative 1974 to mid-1990s)", null, false, "County Top (administrative 1974 to mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990s, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8768,26 +8760,26 @@
         <v>CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G36" s="4" t="str">
-        <f>"x =&gt; x."&amp;A36</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twins (Administrative 1974 to Mid-1990s)", null, false, "County Top (Administrative 1974 to Mid-1990s twin)", x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Top Twins (administrative 1974 to mid-1990s)", null, false, "County Top Twin (administrative 1974 to mid-1990s)", x =&gt; x.CountyTopAdministrative1974ToMid1990sTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8796,26 +8788,26 @@
         <v>CountyTopCurrentLondonBorough</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G37" s="4" t="str">
-        <f>"x =&gt; x."&amp;A37</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.CountyTopCurrentLondonBorough</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Tops (Current London Borough)", null, false, "County Top (Current London Borough)", x =&gt; x.CountyTopCurrentLondonBorough, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Tops (current London borough)", null, false, "County Top (current London borough)", x =&gt; x.CountyTopCurrentLondonBorough, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8824,26 +8816,26 @@
         <v>CountyTopCurrentLondonBoroughTwin</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G38" s="4" t="str">
-        <f>"x =&gt; x."&amp;A38</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.CountyTopCurrentLondonBoroughTwin</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("County Top twins (Current London Borough)", null, false, "County Top (Current London Borough twin)", x =&gt; x.CountyTopCurrentLondonBoroughTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("County Top Twins (current London borough)", null, false, "County Top Twin (current London borough)", x =&gt; x.CountyTopCurrentLondonBoroughTwin, "The highest point within (or sometimes on) the boundary of each county."),</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -8852,25 +8844,25 @@
         <v>SignificantIslandofBritain</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G39" s="4" t="str">
-        <f>"x =&gt; x."&amp;A39</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SignificantIslandofBritain</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Significant Islands of Britain", null, false, "Significant Island of Britain", x =&gt; x.SignificantIslandofBritain, "The Significant Islands of Britain and Ireland are defined to be completely surrounded by water, with either an area of at least 30 hectares within the MHWS contour line or an easily accessed summit prominence of at least 30 metres above MSL, all man-made links and structures being discounted. Sea stacks and other steep sided islands are therefore discounted."),</v>
       </c>
     </row>
@@ -8880,25 +8872,25 @@
         <v>SubMarilyn</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G40" s="4" t="str">
-        <f>"x =&gt; x."&amp;A40</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SubMarilyn</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Sub-Marilyns", null, false, "Sub-Marilyn", x =&gt; x.SubMarilyn, "Hills that fall short of Marilyn status on drop by 10m or less."),</v>
       </c>
     </row>
@@ -8908,25 +8900,25 @@
         <v>SubHump</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G41" s="4" t="str">
-        <f>"x =&gt; x."&amp;A41</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SubHump</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Sub-HuMPs", null, false, "Sub-HuMP", x =&gt; x.SubHump, "Hills that fall short of HuMP status on drop by 10m or less."),</v>
       </c>
     </row>
@@ -8936,25 +8928,25 @@
         <v>SubSimm</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G42" s="4" t="str">
-        <f>"x =&gt; x."&amp;A42</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SubSimm</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Sub-Simms", null, false, "Sub-Simm", x =&gt; x.SubSimm, "Hills that fall short of Simm status on drop by 10m or less."),</v>
       </c>
     </row>
@@ -8964,25 +8956,25 @@
         <v>SubDodd</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G43" s="4" t="str">
-        <f>"x =&gt; x."&amp;A43</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SubDodd</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Sub-Dodds", null, false, "Sub-Dodd", x =&gt; x.SubDodd, "Hills that fall short of Dodd status on drop by 10m or less."),</v>
       </c>
     </row>
@@ -8992,25 +8984,25 @@
         <v>SubTump400To499M</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G44" s="4" t="str">
-        <f>"x =&gt; x."&amp;A44</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.SubTump400To499M</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Sub-TuMPs (400m to 499m)", null, false, "Sub-TuMP (400m to 499m)", x =&gt; x.SubTump400To499M, "Hills that fall short of TuMP status on drop by 10m or less."),</v>
       </c>
     </row>
@@ -9020,7 +9012,7 @@
         <v>Murdo</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
@@ -9029,18 +9021,18 @@
         <v>7</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G45" s="4" t="str">
-        <f>"x =&gt; x."&amp;A45</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Murdo</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Murdos", 7, true, "Murdo", x =&gt; x.Murdo, "Scottish hills at least 3000 feet in height with a drop of at least 30 metres on all sides. All Murdos are Munros or Munro Tops but some Munro Tops fail to qualify as Murdos."),</v>
       </c>
     </row>
@@ -9050,28 +9042,28 @@
         <v>CorbettTop</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="G46" s="4" t="str">
-        <f>"x =&gt; x."&amp;A46</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.CorbettTop</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Corbett tops", 4, true, "Corbett top", x =&gt; x.CorbettTop, "Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("Corbett Tops", 4, true, "Corbett Top", x =&gt; x.CorbettTop, "Subsidiary summits meeting the height criterion of Corbetts are designated Corbetts Tops."),</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -9080,28 +9072,28 @@
         <v>GrahamTop</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2">
         <v>6</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G47" s="4" t="str">
-        <f>"x =&gt; x."&amp;A47</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.GrahamTop</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Graham tops", 6, true, "Graham top", x =&gt; x.GrahamTop, "Subsidiary summits meeting the height criterion of Grahams are designated Graham Tops."),</v>
+        <f t="shared" si="2"/>
+        <v>new ("Graham Tops", 6, true, "Graham Top", x =&gt; x.GrahamTop, "Subsidiary summits meeting the height criterion of Grahams are designated Graham Tops."),</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -9117,16 +9109,16 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4" t="str">
-        <f>"x =&gt; x."&amp;A48</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.BuxtonAndLewis</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Buxton &amp; Lewis", null, false, "Buxton &amp; Lewis", x =&gt; x.BuxtonAndLewis, ""),</v>
       </c>
     </row>
@@ -9136,23 +9128,23 @@
         <v>Bridge</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="str">
-        <f>"x =&gt; x."&amp;A49</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Bridge</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Bridges", null, false, "Bridge", x =&gt; x.Bridge, ""),</v>
       </c>
     </row>
@@ -9162,25 +9154,25 @@
         <v>Yeaman</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G50" s="4" t="str">
-        <f>"x =&gt; x."&amp;A50</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Yeaman</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Yeamans", null, false, "Yeaman", x =&gt; x.Yeaman, "Scottish hills with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
       </c>
     </row>
@@ -9190,25 +9182,25 @@
         <v>Clem</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G51" s="4" t="str">
-        <f>"x =&gt; x."&amp;A51</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Clem</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Clems", null, false, "Clem", x =&gt; x.Clem, "Hills in England, Wales and the Isle of Man with a drop of 100m, or, failing that, at least 5km (walking distance) from any higher point."),</v>
       </c>
     </row>
@@ -9218,23 +9210,23 @@
         <v>Trail100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="4" t="str">
-        <f>"x =&gt; x."&amp;A52</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Trail100</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Trail 100s", null, false, "Trail 100", x =&gt; x.Trail100, ""),</v>
       </c>
     </row>
@@ -9244,24 +9236,24 @@
         <v>DeletedMunroTop</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4" t="str">
-        <f>"x =&gt; x."&amp;A53</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.DeletedMunroTop</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Munro tops", null, false, "Deleted Munro top", x =&gt; x.DeletedMunroTop, ""),</v>
+        <f t="shared" si="2"/>
+        <v>new ("Deleted Munro Tops", null, false, "Deleted Munro Top", x =&gt; x.DeletedMunroTop, ""),</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -9270,23 +9262,23 @@
         <v>DeletedCorbett</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4" t="str">
-        <f>"x =&gt; x."&amp;A54</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.DeletedCorbett</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Deleted Corbetts", null, false, "Deleted Corbett", x =&gt; x.DeletedCorbett, ""),</v>
       </c>
     </row>
@@ -9296,23 +9288,23 @@
         <v>DeletedGraham</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4" t="str">
-        <f>"x =&gt; x."&amp;A55</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.DeletedGraham</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Deleted Grahams", null, false, "Deleted Graham", x =&gt; x.DeletedGraham, ""),</v>
       </c>
     </row>
@@ -9322,23 +9314,23 @@
         <v>DeletedNuttall</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4" t="str">
-        <f>"x =&gt; x."&amp;A56</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.DeletedNuttall</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Deleted Nuttalls", null, false, "Deleted Nuttall", x =&gt; x.DeletedNuttall, ""),</v>
       </c>
     </row>
@@ -9348,24 +9340,24 @@
         <v>DeletedDonaldTop</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4" t="str">
-        <f>"x =&gt; x."&amp;A57</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.DeletedDonaldTop</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>new ("Deleted Donald tops", null, false, "Deleted Donald top", x =&gt; x.DeletedDonaldTop, ""),</v>
+        <f t="shared" si="2"/>
+        <v>new ("Deleted Donald Tops", null, false, "Deleted Donald Top", x =&gt; x.DeletedDonaldTop, ""),</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -9374,25 +9366,25 @@
         <v>Dillon</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G58" s="4" t="str">
-        <f>"x =&gt; x."&amp;A58</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Dillon</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Dillons", null, false, "Dillon", x =&gt; x.Dillon, "Hills in Ireland at least 2000 feet high."),</v>
       </c>
     </row>
@@ -9402,25 +9394,25 @@
         <v>VandeleurLynam</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G59" s="4" t="str">
-        <f>"x =&gt; x."&amp;A59</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.VandeleurLynam</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Vandeleur-Lynams", null, false, "Vandeleur-Lynam", x =&gt; x.VandeleurLynam, "Hills in Ireland at least 600 metres high with a drop of at least 15 metres on all sides."),</v>
       </c>
     </row>
@@ -9430,25 +9422,25 @@
         <v>Arderin</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G60" s="4" t="str">
-        <f>"x =&gt; x."&amp;A60</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Arderin</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Arderins", null, false, "Arderin", x =&gt; x.Arderin, "Hills in Ireland at least 500 metres high with a drop of at least 30m on all sides."),</v>
       </c>
     </row>
@@ -9458,25 +9450,25 @@
         <v>Carn</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G61" s="4" t="str">
-        <f>"x =&gt; x."&amp;A61</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Carn</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Carns", null, false, "Carn", x =&gt; x.Carn, "Hills in Ireland between 400 and 499.9m high with a drop of at least 30m on all sides."),</v>
       </c>
     </row>
@@ -9486,25 +9478,25 @@
         <v>Binnion</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G62" s="4" t="str">
-        <f>"x =&gt; x."&amp;A62</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Binnion</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Binnions", null, false, "Binnion", x =&gt; x.Binnion, "Hills in Ireland with height below 400m and a drop of at least 100m on all sides."),</v>
       </c>
     </row>
@@ -9514,23 +9506,23 @@
         <v>OtherList</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="4" t="str">
-        <f>"x =&gt; x."&amp;A63</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.OtherList</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Other lists", null, false, "Other list", x =&gt; x.OtherList, ""),</v>
       </c>
     </row>
@@ -9547,16 +9539,16 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="4" t="str">
-        <f>"x =&gt; x."&amp;A64</f>
+        <f t="shared" si="3"/>
         <v>x =&gt; x.Unclassified</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>new ("Unclassified", null, false, "Unclassified", x =&gt; x.Unclassified, ""),</v>
       </c>
     </row>

--- a/data/DobihCodeNames.xlsx
+++ b/data/DobihCodeNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\scotlands-mountains\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F2304-140C-4067-B347-02212B098C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4911F-DA3E-4F8A-BE64-6DA8F6762D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47C25BEF-F419-4614-AF31-B0423522DC6F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="334">
   <si>
     <t>Number</t>
   </si>
@@ -688,9 +688,6 @@
     <t>A Marilyn Twin Top is a summit of equal height to another Marilyn where the drop between the two is less than 150m and at least 30m. The only example is 21168 Knockalla Mountain NE Top in Ireland.</t>
   </si>
   <si>
-    <t>British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence.</t>
-  </si>
-  <si>
     <t>A Twin Hump is defined as a summit of equal height to another Hump where the drop between the two summits is at least 30m but less than 100m.</t>
   </si>
   <si>
@@ -1025,6 +1022,12 @@
   </si>
   <si>
     <t>County Top Twins (current county or unitary authority)</t>
+  </si>
+  <si>
+    <t>British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name HuMP stands for Hundred Metre Prominence.</t>
+  </si>
+  <si>
+    <t>British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014. The name TuMP stands for Thirty Metre Prominence.</t>
   </si>
 </sst>
 </file>
@@ -7736,7 +7739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D06681-04E7-442F-B5D9-FAC6AE6C4952}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7757,13 +7762,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
         <v>303</v>
-      </c>
-      <c r="E1" t="s">
-        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>201</v>
@@ -7778,7 +7783,7 @@
         <v>Marilyn</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>97</v>
@@ -7808,10 +7813,10 @@
         <v>MarilynTwin</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="str">
@@ -7836,7 +7841,7 @@
         <v>Hump</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>209</v>
@@ -7849,7 +7854,7 @@
         <v>true</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7857,7 +7862,7 @@
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("HuMPs", 13, true, "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name Hump stands for Hundred Metre Prominence."),</v>
+        <v>new ("HuMPs", 13, true, "HuMP", x =&gt; x.Hump, "British and Irish Hills of any height with a drop of at least 100 metres or more on all sides. The name HuMP stands for Hundred Metre Prominence."),</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7866,10 +7871,10 @@
         <v>HumpTwin</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="str">
@@ -7877,7 +7882,7 @@
         <v>false</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7894,7 +7899,7 @@
         <v>Tump</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>203</v>
@@ -7907,7 +7912,7 @@
         <v>true</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7915,7 +7920,7 @@
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs", 14, true, "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs", 14, true, "TuMP", x =&gt; x.Tump, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014. The name TuMP stands for Thirty Metre Prominence."),</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7924,7 +7929,7 @@
         <v>Simm</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>99</v>
@@ -7935,7 +7940,7 @@
         <v>false</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7952,7 +7957,7 @@
         <v>Dodd</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
@@ -7963,7 +7968,7 @@
         <v>false</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7980,7 +7985,7 @@
         <v>Munro</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>101</v>
@@ -7993,7 +7998,7 @@
         <v>true</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8010,7 +8015,7 @@
         <v>MunroTop</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>102</v>
@@ -8023,7 +8028,7 @@
         <v>true</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8040,7 +8045,7 @@
         <v>Furth</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>103</v>
@@ -8051,7 +8056,7 @@
         <v>false</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8068,7 +8073,7 @@
         <v>Corbett</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>104</v>
@@ -8081,7 +8086,7 @@
         <v>true</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8098,7 +8103,7 @@
         <v>Graham</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>105</v>
@@ -8111,7 +8116,7 @@
         <v>true</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8128,7 +8133,7 @@
         <v>Donald</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>106</v>
@@ -8141,7 +8146,7 @@
         <v>true</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8158,7 +8163,7 @@
         <v>DonaldTop</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>107</v>
@@ -8171,7 +8176,7 @@
         <v>true</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8188,7 +8193,7 @@
         <v>Hewitt</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>108</v>
@@ -8199,7 +8204,7 @@
         <v>false</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8216,7 +8221,7 @@
         <v>Nuttall</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>109</v>
@@ -8227,7 +8232,7 @@
         <v>false</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8244,7 +8249,7 @@
         <v>Dewey</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>110</v>
@@ -8255,7 +8260,7 @@
         <v>false</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8272,7 +8277,7 @@
         <v>DonaldDewey</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>111</v>
@@ -8285,7 +8290,7 @@
         <v>true</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8302,7 +8307,7 @@
         <v>HighlandFive</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>112</v>
@@ -8315,7 +8320,7 @@
         <v>true</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8332,20 +8337,18 @@
         <v>Tump400To499M</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="2">
-        <v>15</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8353,7 +8356,7 @@
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs (400m to 499m)", 15, true, "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs (400m to 499m)", null, false, "TuMP (400m to 499m)", x =&gt; x.Tump400To499M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8362,20 +8365,18 @@
         <v>Tump300To399M</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8383,7 +8384,7 @@
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs (300m to 399m)", 16, true, "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs (300m to 399m)", null, false, "TuMP (300m to 399m)", x =&gt; x.Tump300To399M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8392,20 +8393,18 @@
         <v>Tump200To299M</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="2">
-        <v>17</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8413,7 +8412,7 @@
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs (200m to 299m)", 17, true, "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs (200m to 299m)", null, false, "TuMP (200m to 299m)", x =&gt; x.Tump200To299M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,20 +8421,18 @@
         <v>Tump100To199M</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="2">
-        <v>18</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8443,7 +8440,7 @@
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs (100m to 199m)", 18, true, "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs (100m to 199m)", null, false, "TuMP (100m to 199m)", x =&gt; x.Tump100To199M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8452,20 +8449,18 @@
         <v>Tump0To99M</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="2">
-        <v>19</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8473,7 +8468,7 @@
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new ("TuMPs (0m to 99m)", 19, true, "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
+        <v>new ("TuMPs (0m to 99m)", null, false, "TuMP (0m to 99m)", x =&gt; x.Tump0To99M, "British hills of any height with at least 30m of drop. The geographical area was extended to the Channel Islands in September 2014."),</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,7 +8477,7 @@
         <v>Wainwright</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>118</v>
@@ -8493,7 +8488,7 @@
         <v>false</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8510,7 +8505,7 @@
         <v>WainwrightOutlyingFell</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>119</v>
@@ -8521,7 +8516,7 @@
         <v>false</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8538,7 +8533,7 @@
         <v>Birkett</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>120</v>
@@ -8549,7 +8544,7 @@
         <v>false</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8566,7 +8561,7 @@
         <v>Synge</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>121</v>
@@ -8577,7 +8572,7 @@
         <v>false</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8594,7 +8589,7 @@
         <v>Fellranger</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>122</v>
@@ -8620,10 +8615,10 @@
         <v>CountyTopHistoricPre1974</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4" t="str">
@@ -8631,7 +8626,7 @@
         <v>false</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8648,10 +8643,10 @@
         <v>CountyTopHistoricPre1974Twin</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4" t="str">
@@ -8659,7 +8654,7 @@
         <v>false</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8676,10 +8671,10 @@
         <v>CountyTopCurrentCountyorUnitaryAuthority</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4" t="str">
@@ -8687,7 +8682,7 @@
         <v>false</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -8704,10 +8699,10 @@
         <v>CountyTopCurrentCountyorUnitaryAuthorityTwin</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="4" t="str">
@@ -8715,7 +8710,7 @@
         <v>false</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" ref="G34:G64" si="3">"x =&gt; x."&amp;A34</f>
@@ -8732,10 +8727,10 @@
         <v>CountyTopAdministrative1974ToMid1990s</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4" t="str">
@@ -8743,7 +8738,7 @@
         <v>false</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8760,10 +8755,10 @@
         <v>CountyTopAdministrative1974ToMid1990sTwin</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4" t="str">
@@ -8771,7 +8766,7 @@
         <v>false</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8788,10 +8783,10 @@
         <v>CountyTopCurrentLondonBorough</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="4" t="str">
@@ -8799,7 +8794,7 @@
         <v>false</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8816,10 +8811,10 @@
         <v>CountyTopCurrentLondonBoroughTwin</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="4" t="str">
@@ -8827,7 +8822,7 @@
         <v>false</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8844,7 +8839,7 @@
         <v>SignificantIslandofBritain</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>127</v>
@@ -8855,7 +8850,7 @@
         <v>false</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8872,7 +8867,7 @@
         <v>SubMarilyn</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>210</v>
@@ -8883,7 +8878,7 @@
         <v>false</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8900,7 +8895,7 @@
         <v>SubHump</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>211</v>
@@ -8911,7 +8906,7 @@
         <v>false</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8928,7 +8923,7 @@
         <v>SubSimm</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>212</v>
@@ -8939,7 +8934,7 @@
         <v>false</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8956,7 +8951,7 @@
         <v>SubDodd</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>213</v>
@@ -8967,7 +8962,7 @@
         <v>false</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8984,7 +8979,7 @@
         <v>SubTump400To499M</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>214</v>
@@ -8995,7 +8990,7 @@
         <v>false</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9012,7 +9007,7 @@
         <v>Murdo</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>134</v>
@@ -9025,7 +9020,7 @@
         <v>true</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9042,7 +9037,7 @@
         <v>CorbettTop</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>135</v>
@@ -9055,7 +9050,7 @@
         <v>true</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9072,7 +9067,7 @@
         <v>GrahamTop</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>136</v>
@@ -9085,7 +9080,7 @@
         <v>true</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9128,7 +9123,7 @@
         <v>Bridge</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>139</v>
@@ -9154,7 +9149,7 @@
         <v>Yeaman</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>141</v>
@@ -9165,7 +9160,7 @@
         <v>false</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9182,7 +9177,7 @@
         <v>Clem</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>142</v>
@@ -9193,7 +9188,7 @@
         <v>false</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9210,7 +9205,7 @@
         <v>Trail100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
@@ -9236,10 +9231,10 @@
         <v>DeletedMunroTop</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="4" t="str">
@@ -9262,7 +9257,7 @@
         <v>DeletedCorbett</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>215</v>
@@ -9288,7 +9283,7 @@
         <v>DeletedGraham</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>216</v>
@@ -9314,7 +9309,7 @@
         <v>DeletedNuttall</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>217</v>
@@ -9340,10 +9335,10 @@
         <v>DeletedDonaldTop</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="4" t="str">
@@ -9366,7 +9361,7 @@
         <v>Dillon</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>128</v>
@@ -9377,7 +9372,7 @@
         <v>false</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9394,7 +9389,7 @@
         <v>VandeleurLynam</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>130</v>
@@ -9405,7 +9400,7 @@
         <v>false</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9422,7 +9417,7 @@
         <v>Arderin</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>129</v>
@@ -9433,7 +9428,7 @@
         <v>false</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9450,7 +9445,7 @@
         <v>Carn</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>143</v>
@@ -9461,7 +9456,7 @@
         <v>false</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9478,7 +9473,7 @@
         <v>Binnion</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>144</v>
@@ -9489,7 +9484,7 @@
         <v>false</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
@@ -9506,7 +9501,7 @@
         <v>OtherList</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>131</v>
